--- a/src/mappings/mobile/xlsx/veris-1_3_7-mappings-mobile_v12.xlsx
+++ b/src/mappings/mobile/xlsx/veris-1_3_7-mappings-mobile_v12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitreengenuity.sharepoint.com/sites/CTIDInternal/Shared Documents/Research &amp; Development/1 - Customer Projects/22-52 - VERIS II/Center Team Resources/Mappings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitre-my.sharepoint.com/personal/javoss_mitre_org/Documents/Documents/Veris II/veris-2/src/mappings/mobile/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="8_{A9A6FA05-61E3-1D44-9E3F-CB0A6613A87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D7E7B02-913B-405B-93DC-4FF270ED2B5A}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="6_{ACAA37AD-42AF-4D02-A299-4CDD764FD86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F0DA90D-66DB-4132-855F-A284FBC621B3}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" firstSheet="3" xr2:uid="{698518E7-B140-7645-B530-A1A72BD96EA6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{698518E7-B140-7645-B530-A1A72BD96EA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="433">
   <si>
     <t>ATT&amp;CK Integration into VERIS</t>
   </si>
@@ -154,25 +154,25 @@
     <t>Protected User Data</t>
   </si>
   <si>
-    <t>T1636.01</t>
+    <t>T1636.001</t>
   </si>
   <si>
     <t>Protected User Data: Calendar Entries</t>
   </si>
   <si>
-    <t>T1636.02</t>
+    <t>T1636.002</t>
   </si>
   <si>
     <t>Protected User Data: Call Log</t>
   </si>
   <si>
-    <t>T1636.03</t>
+    <t>T1636.003</t>
   </si>
   <si>
     <t>Protected User Data: Contact List</t>
   </si>
   <si>
-    <t>T1636.04</t>
+    <t>T1636.004</t>
   </si>
   <si>
     <t>Protected User Data: SMS Messages</t>
@@ -265,7 +265,7 @@
     <t>Execution Guardrails</t>
   </si>
   <si>
-    <t>T1627.01</t>
+    <t>T1627.001</t>
   </si>
   <si>
     <t>Execution Guardrails: GeoFencing</t>
@@ -277,13 +277,13 @@
     <t>Hide Artifacts</t>
   </si>
   <si>
-    <t>T1628.01</t>
+    <t>T1628.001</t>
   </si>
   <si>
     <t>Hide Artifacts: Suppress Application Icon</t>
   </si>
   <si>
-    <t>T1628.02</t>
+    <t>T1628.002</t>
   </si>
   <si>
     <t>Hide Artifacts: User Evasion</t>
@@ -346,9 +346,6 @@
     <t>Fuzz testing</t>
   </si>
   <si>
-    <t>Hijacking</t>
-  </si>
-  <si>
     <t>T1625</t>
   </si>
   <si>
@@ -415,16 +412,13 @@
     <t>Path traversal</t>
   </si>
   <si>
-    <t>Profile Host</t>
-  </si>
-  <si>
     <t>T1426</t>
   </si>
   <si>
     <t>System Information Discovery</t>
   </si>
   <si>
-    <t xml:space="preserve">T1418 </t>
+    <t>T1418</t>
   </si>
   <si>
     <t>Software Discovery</t>
@@ -625,12 +619,21 @@
     <t>Supply Chain Compromise</t>
   </si>
   <si>
+    <t>T1474.001</t>
+  </si>
+  <si>
     <t>Supply Chain Compromise: Compromise Software Dependencies and Development Tools</t>
   </si>
   <si>
+    <t>T1474.002</t>
+  </si>
+  <si>
     <t>Supply Chain Compromise: Compromise Hardware Supply Chain</t>
   </si>
   <si>
+    <t>T1474.003</t>
+  </si>
+  <si>
     <t>Supply Chain Compromise: Compromise Software Supply Chain</t>
   </si>
   <si>
@@ -754,21 +757,9 @@
     <t>Location Tracking: Impersonate SS7 Nodes</t>
   </si>
   <si>
-    <t>T1636.001</t>
-  </si>
-  <si>
     <t>Protected User Data: Calendar Entries</t>
   </si>
   <si>
-    <t>T1636.002</t>
-  </si>
-  <si>
-    <t>T1636.003</t>
-  </si>
-  <si>
-    <t>T1636.004</t>
-  </si>
-  <si>
     <t>T1513</t>
   </si>
   <si>
@@ -823,9 +814,6 @@
     <t>Hardware tampering</t>
   </si>
   <si>
-    <t>T1474.002</t>
-  </si>
-  <si>
     <t>Log tampering</t>
   </si>
   <si>
@@ -1024,9 +1012,6 @@
     <t>Exfiltration over Alternative Protocol</t>
   </si>
   <si>
-    <t>T1639.01</t>
-  </si>
-  <si>
     <t>Exfiltration over Unencrypted Non-C2 Channel</t>
   </si>
   <si>
@@ -1036,9 +1021,6 @@
     <t>In-memory</t>
   </si>
   <si>
-    <t xml:space="preserve">T1414 </t>
-  </si>
-  <si>
     <t>T1641</t>
   </si>
   <si>
@@ -1204,12 +1186,6 @@
     <t>Software</t>
   </si>
   <si>
-    <t>T1474.003</t>
-  </si>
-  <si>
-    <t>T1474.001</t>
-  </si>
-  <si>
     <t>VERIS Value_chain</t>
   </si>
   <si>
@@ -1367,13 +1343,16 @@
   </si>
   <si>
     <t>VERIS</t>
+  </si>
+  <si>
+    <t>Hijack</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1528,7 +1507,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1595,57 +1574,35 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1965,30 +1922,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62726C7-AE57-47B4-AC07-9EA1C9A6C528}">
-  <dimension ref="D4:F11"/>
+  <dimension ref="D5:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="8.875" style="15"/>
+    <col min="6" max="6" width="8.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:6" ht="15.75"/>
-    <row r="5" spans="4:6" ht="15.75">
+    <row r="5" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D5" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="4:6" ht="15.75">
+    <row r="6" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D6" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="4:6" ht="15.75"/>
-    <row r="8" spans="4:6" ht="15.75">
+    <row r="8" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>2</v>
       </c>
@@ -1996,7 +1951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="4:6" ht="15.75">
+    <row r="9" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>4</v>
       </c>
@@ -2004,7 +1959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="4:6" ht="15.75">
+    <row r="10" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>6</v>
       </c>
@@ -2012,7 +1967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="4:6">
+    <row r="11" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>8</v>
       </c>
@@ -2028,157 +1983,155 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDF027E-A5AB-4362-BE7D-1C98B64C4E42}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23" style="32" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.5" style="32"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="C5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75">
-      <c r="A2" s="32" t="s">
+      <c r="B6" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="C7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>376</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="34"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.75">
-      <c r="A3" s="32" t="s">
-        <v>349</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" s="32" t="s">
+      <c r="B8" s="20" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75">
-      <c r="A4" s="32" t="s">
+      <c r="C8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>377</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="34"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75">
-      <c r="A5" s="32" t="s">
+      <c r="B10" s="20"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>378</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75">
-      <c r="A6" s="32" t="s">
-        <v>381</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75">
-      <c r="A7" s="32" t="s">
-        <v>358</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75">
-      <c r="A8" s="32" t="s">
-        <v>382</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75">
-      <c r="B9" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75">
-      <c r="A10" s="32" t="s">
-        <v>383</v>
-      </c>
-      <c r="B10" s="20"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75">
-      <c r="A11" s="32" t="s">
-        <v>384</v>
-      </c>
       <c r="B11" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="C11" s="34" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75">
+      <c r="C11" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75">
-      <c r="A13" s="32" t="s">
-        <v>197</v>
+        <v>190</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>198</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75">
-      <c r="A14" s="32" t="s">
-        <v>161</v>
+        <v>356</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>159</v>
       </c>
       <c r="B14" s="20"/>
-      <c r="C14" s="34"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75">
-      <c r="A15" s="32" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" display="https://attack.mitre.org/techniques/T1517" xr:uid="{04490271-6A3B-411B-8389-71E91B9BAD12}"/>
@@ -2198,22 +2151,22 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB4D0C4-AB00-444A-B726-674C8A391D6C}">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" customWidth="1"/>
-    <col min="3" max="3" width="54.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="54.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>10</v>
@@ -2222,147 +2175,147 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="9"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B3" s="20"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B4" s="20"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B5" s="20"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B6" s="20"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B7" s="20"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B8" s="20"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>387</v>
+      </c>
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>388</v>
       </c>
-      <c r="B2" s="9"/>
-    </row>
-    <row r="3" spans="1:3" s="32" customFormat="1">
-      <c r="A3" s="32" t="s">
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>389</v>
       </c>
-      <c r="B3" s="20"/>
-    </row>
-    <row r="4" spans="1:3" s="32" customFormat="1">
-      <c r="A4" s="32" t="s">
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>390</v>
       </c>
-      <c r="B4" s="20"/>
-    </row>
-    <row r="5" spans="1:3" s="32" customFormat="1">
-      <c r="A5" s="32" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>391</v>
       </c>
-      <c r="B5" s="20"/>
-    </row>
-    <row r="6" spans="1:3" s="32" customFormat="1">
-      <c r="A6" s="32" t="s">
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>392</v>
       </c>
-      <c r="B6" s="20"/>
-    </row>
-    <row r="7" spans="1:3" s="32" customFormat="1">
-      <c r="A7" s="32" t="s">
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>393</v>
       </c>
-      <c r="B7" s="20"/>
-    </row>
-    <row r="8" spans="1:3" s="32" customFormat="1">
-      <c r="A8" s="32" t="s">
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>394</v>
       </c>
-      <c r="B8" s="20"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>395</v>
       </c>
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>396</v>
       </c>
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>397</v>
       </c>
-      <c r="B11" s="9"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>399</v>
       </c>
-      <c r="B13" s="9"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>400</v>
-      </c>
-      <c r="B14" s="9"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>401</v>
-      </c>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>402</v>
-      </c>
-      <c r="B16" s="9"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>403</v>
-      </c>
-      <c r="B17" s="11"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>404</v>
-      </c>
-      <c r="B18" s="11"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>405</v>
-      </c>
-      <c r="B19" s="11"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>406</v>
-      </c>
-      <c r="B20" s="11"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75">
-      <c r="A21" t="s">
-        <v>407</v>
-      </c>
       <c r="B21" s="18" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C21" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B22" s="18" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C22" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B23" s="18" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C23" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B24" s="18" t="s">
         <v>25</v>
       </c>
@@ -2370,7 +2323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B25" s="18" t="s">
         <v>27</v>
       </c>
@@ -2378,15 +2331,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B26" s="18" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C26" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B27" s="18" t="s">
         <v>43</v>
       </c>
@@ -2394,333 +2347,330 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>402</v>
+      </c>
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>404</v>
+      </c>
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>405</v>
+      </c>
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>410</v>
       </c>
-      <c r="B28" s="11"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>412</v>
       </c>
-      <c r="B30" s="9"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="B38" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>413</v>
       </c>
-      <c r="B31" s="9"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+      <c r="B42" s="11"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>418</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="17.100000000000001">
-      <c r="A38" t="s">
-        <v>420</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>423</v>
-      </c>
-      <c r="B41" s="9"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>424</v>
-      </c>
-      <c r="B42" s="11"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>426</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="13"/>
     </row>
-    <row r="45" spans="1:3" ht="15.75">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="13"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="13"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B50" s="9"/>
       <c r="C50" s="13"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B51" s="9"/>
       <c r="C51" s="13"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B52" s="9"/>
       <c r="C52" s="13"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B53" s="9"/>
       <c r="C53" s="13"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B54" s="9"/>
       <c r="C54" s="13"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B55" s="9"/>
       <c r="C55" s="13"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B56" s="9"/>
       <c r="C56" s="13"/>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B57" s="9"/>
       <c r="C57" s="13"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B58" s="9"/>
       <c r="C58" s="13"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B59" s="9"/>
       <c r="C59" s="13"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B60" s="9"/>
       <c r="C60" s="13"/>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B61" s="9"/>
       <c r="C61" s="13"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B62" s="9"/>
       <c r="C62" s="13"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B63" s="9"/>
       <c r="C63" s="13"/>
     </row>
-    <row r="64" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="64" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="11"/>
       <c r="B64" s="9"/>
       <c r="C64" s="13"/>
     </row>
-    <row r="65" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="65" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="11"/>
       <c r="B65" s="9"/>
       <c r="C65" s="13"/>
     </row>
-    <row r="66" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="66" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="11"/>
       <c r="B66" s="9"/>
       <c r="C66" s="13"/>
     </row>
-    <row r="67" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="67" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11"/>
       <c r="B67" s="9"/>
       <c r="C67" s="13"/>
     </row>
-    <row r="68" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="68" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11"/>
       <c r="B68" s="9"/>
       <c r="C68" s="13"/>
     </row>
-    <row r="69" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="69" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="11"/>
       <c r="B69" s="9"/>
       <c r="C69" s="13"/>
     </row>
-    <row r="70" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="70" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="11"/>
       <c r="B70" s="9"/>
       <c r="C70" s="13"/>
     </row>
-    <row r="71" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="71" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="11"/>
       <c r="B71" s="9"/>
       <c r="C71" s="13"/>
     </row>
-    <row r="72" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="72" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="11"/>
       <c r="B72" s="9"/>
       <c r="C72" s="13"/>
     </row>
-    <row r="73" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="73" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="11"/>
       <c r="B73" s="9"/>
       <c r="C73" s="13"/>
     </row>
-    <row r="74" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="74" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="11"/>
       <c r="B74" s="9"/>
       <c r="C74" s="13"/>
     </row>
-    <row r="75" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="75" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="11"/>
       <c r="B75" s="9"/>
       <c r="C75" s="13"/>
     </row>
-    <row r="76" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="76" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="11"/>
       <c r="B76" s="9"/>
       <c r="C76" s="13"/>
     </row>
-    <row r="77" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="77" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="11"/>
       <c r="B77" s="9"/>
       <c r="C77" s="13"/>
     </row>
-    <row r="78" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="78" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="13"/>
     </row>
-    <row r="79" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="79" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="11"/>
       <c r="B79" s="9"/>
       <c r="C79" s="13"/>
     </row>
-    <row r="80" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="80" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="11"/>
       <c r="B80" s="9"/>
       <c r="C80" s="13"/>
     </row>
-    <row r="81" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="81" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="11"/>
       <c r="B81" s="9"/>
       <c r="C81" s="13"/>
     </row>
-    <row r="82" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="82" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="11"/>
       <c r="B82" s="9"/>
       <c r="C82" s="13"/>
     </row>
-    <row r="83" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="83" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="11"/>
       <c r="B83" s="9"/>
       <c r="C83" s="13"/>
     </row>
-    <row r="84" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="84" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="11"/>
       <c r="B84" s="9"/>
       <c r="C84" s="13"/>
     </row>
-    <row r="85" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="85" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="11"/>
       <c r="B85" s="9"/>
       <c r="C85" s="13"/>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="15.75"/>
-    <row r="92" spans="1:3" ht="15.75"/>
-    <row r="93" spans="1:3" ht="15.75"/>
+        <v>428</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B21" r:id="rId1" xr:uid="{142F2670-8308-41BB-9369-C5E1CAE6F4FC}"/>
@@ -2744,27 +2694,27 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="83.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="51" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="51" t="s">
-        <v>437</v>
-      </c>
-      <c r="B1" s="52" t="s">
-        <v>438</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="312" ht="15.75"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="19.5" customHeight="1"/>
+    <row r="1" spans="1:3" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="312" ht="15.5" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2773,20 +2723,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7AF39-A8AE-1448-8EA3-B969364DCC63}">
-  <dimension ref="A1:XFD189"/>
+  <dimension ref="A1:XFD155"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
@@ -2797,7 +2747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -2809,7 +2759,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="20" t="s">
         <v>15</v>
@@ -2819,7 +2769,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21"/>
       <c r="B4" s="20" t="s">
         <v>17</v>
@@ -2828,7 +2778,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21"/>
       <c r="B5" s="20" t="s">
         <v>19</v>
@@ -2837,7 +2787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21"/>
       <c r="B6" s="20" t="s">
         <v>21</v>
@@ -2846,7 +2796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21"/>
       <c r="B7" s="20" t="s">
         <v>23</v>
@@ -2855,7 +2805,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="21"/>
       <c r="B8" s="20" t="s">
         <v>25</v>
@@ -2864,7 +2814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="21"/>
       <c r="B9" s="20" t="s">
         <v>27</v>
@@ -2873,7 +2823,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="21"/>
       <c r="B10" s="20" t="s">
         <v>29</v>
@@ -2882,7 +2832,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="21"/>
       <c r="B11" s="20" t="s">
         <v>31</v>
@@ -2891,7 +2841,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="21"/>
       <c r="B12" s="22" t="s">
         <v>33</v>
@@ -2900,7 +2850,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="21"/>
       <c r="B13" s="22" t="s">
         <v>35</v>
@@ -2909,7 +2859,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="17.100000000000001">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="22" t="s">
         <v>37</v>
@@ -2918,7 +2868,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="21"/>
       <c r="B15" s="22" t="s">
         <v>39</v>
@@ -2927,7 +2877,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21"/>
       <c r="B16" s="22" t="s">
         <v>41</v>
@@ -2936,7 +2886,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="20" t="s">
         <v>43</v>
@@ -2945,7 +2895,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17.100000000000001">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="20" t="s">
         <v>45</v>
@@ -2954,7 +2904,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="22" t="s">
         <v>47</v>
@@ -2963,7 +2913,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="22" t="s">
         <v>49</v>
@@ -2972,7 +2922,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17.100000000000001">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>51</v>
       </c>
@@ -2983,7 +2933,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17.100000000000001">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="22" t="s">
         <v>54</v>
@@ -2992,7 +2942,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="17.100000000000001">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="22" t="s">
         <v>56</v>
@@ -3001,47 +2951,47 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B24" s="20"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B25" s="20"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="12"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>64</v>
       </c>
@@ -3052,7 +3002,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17.100000000000001">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="20" t="s">
         <v>67</v>
@@ -3061,7 +3011,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="17.100000000000001">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>69</v>
       </c>
@@ -3072,7 +3022,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17.100000000000001">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="16" t="s">
         <v>72</v>
@@ -3081,7 +3031,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="17.100000000000001">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="22" t="s">
         <v>74</v>
@@ -3090,7 +3040,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="17.100000000000001">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="22" t="s">
         <v>76</v>
@@ -3099,7 +3049,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="17.100000000000001">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="22" t="s">
         <v>78</v>
@@ -3108,7 +3058,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="22" t="s">
         <v>80</v>
@@ -3117,7 +3067,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="22" t="s">
         <v>82</v>
@@ -3126,7 +3076,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="22" t="s">
         <v>84</v>
@@ -3135,7 +3085,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="22" t="s">
         <v>86</v>
@@ -3144,7 +3094,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="22" t="s">
         <v>88</v>
@@ -3153,7 +3103,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>90</v>
       </c>
@@ -3164,7 +3114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="20" t="s">
         <v>91</v>
@@ -3173,7 +3123,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="17.100000000000001">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="B44" s="20" t="s">
         <v>93</v>
@@ -3182,7 +3132,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>95</v>
       </c>
@@ -3193,21 +3143,21 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>98</v>
       </c>
@@ -3218,161 +3168,161 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B49" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="C49" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="4"/>
       <c r="B50" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="4"/>
       <c r="B51" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="4" t="s">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="4" t="s">
+      <c r="B52" s="20"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="20"/>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="4" t="s">
+      <c r="B53" s="20"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="20"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="4" t="s">
+      <c r="B54" s="20"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="20"/>
-    </row>
-    <row r="55" spans="1:3" ht="15.75">
-      <c r="A55" s="4" t="s">
+      <c r="B55" s="20"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B55" s="20"/>
-    </row>
-    <row r="56" spans="1:3" ht="15.75">
-      <c r="A56" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="4"/>
     </row>
-    <row r="57" spans="1:3" ht="15.75">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="4"/>
     </row>
-    <row r="58" spans="1:3" ht="15.75">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="4"/>
     </row>
-    <row r="59" spans="1:3" ht="15.75">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="4"/>
     </row>
-    <row r="60" spans="1:3" ht="16.5">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="C60" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C60" s="13" t="s">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75">
-      <c r="A61" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="4"/>
     </row>
-    <row r="62" spans="1:3" ht="15.75">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="20"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B62" s="20"/>
-    </row>
-    <row r="63" spans="1:3" ht="15.75">
-      <c r="A63" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="4"/>
     </row>
-    <row r="64" spans="1:3" ht="15.75">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="20"/>
+    </row>
+    <row r="65" spans="1:16384" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B64" s="20"/>
-    </row>
-    <row r="65" spans="1:16384" customFormat="1" ht="15.75">
-      <c r="A65" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="4"/>
     </row>
-    <row r="66" spans="1:16384" customFormat="1" ht="15.75">
+    <row r="66" spans="1:16384" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B66" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16384" customFormat="1" ht="15.75">
+    </row>
+    <row r="67" spans="1:16384" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16384" customFormat="1" ht="15.75">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16384" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16384" customFormat="1" ht="15.75">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16384" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="20" t="s">
         <v>70</v>
@@ -3381,62 +3331,62 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:16384" customFormat="1" ht="15.75">
+    <row r="70" spans="1:16384" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="20" t="s">
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16384" customFormat="1" ht="15.75">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16384" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16384" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="C71" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16384" customFormat="1" ht="15.75">
-      <c r="A72" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="4"/>
     </row>
-    <row r="73" spans="1:16384" customFormat="1" ht="15.75">
+    <row r="73" spans="1:16384" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="4"/>
     </row>
-    <row r="74" spans="1:16384" customFormat="1" ht="15.75">
+    <row r="74" spans="1:16384" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B74" s="20"/>
+    </row>
+    <row r="75" spans="1:16384" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B74" s="20"/>
-    </row>
-    <row r="75" spans="1:16384" customFormat="1" ht="15.75">
-      <c r="A75" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B75" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16384" customFormat="1" ht="15.75">
+    </row>
+    <row r="76" spans="1:16384" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C76" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="20"/>
@@ -19820,13 +19770,13 @@
       <c r="XFC76" s="20"/>
       <c r="XFD76" s="4"/>
     </row>
-    <row r="77" spans="1:16384" customFormat="1" ht="15.75">
+    <row r="77" spans="1:16384" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="20"/>
       <c r="B77" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C77" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="20"/>
@@ -36210,434 +36160,407 @@
       <c r="XFC77" s="20"/>
       <c r="XFD77" s="4"/>
     </row>
-    <row r="78" spans="1:16384" customFormat="1" ht="15.75">
+    <row r="78" spans="1:16384" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="4"/>
     </row>
-    <row r="79" spans="1:16384" customFormat="1" ht="15.75">
+    <row r="79" spans="1:16384" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="4"/>
     </row>
-    <row r="80" spans="1:16384" customFormat="1" ht="15.75">
+    <row r="80" spans="1:16384" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="4"/>
     </row>
-    <row r="81" spans="1:3" ht="15.75">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="4"/>
     </row>
-    <row r="82" spans="1:3" ht="15.75">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="4"/>
     </row>
-    <row r="83" spans="1:3" ht="15.75">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="4"/>
     </row>
-    <row r="84" spans="1:3" ht="15.75">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="4"/>
     </row>
-    <row r="85" spans="1:3" ht="15.75">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="4"/>
     </row>
-    <row r="86" spans="1:3" ht="15.75">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="15.75">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="20"/>
       <c r="C87" s="4"/>
     </row>
-    <row r="88" spans="1:3" ht="15.75">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="20"/>
       <c r="C88" s="4"/>
     </row>
-    <row r="89" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="89" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="21"/>
       <c r="B89" s="20"/>
       <c r="C89" s="4"/>
     </row>
-    <row r="90" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="90" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="24"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
     </row>
-    <row r="91" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="91" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="24"/>
       <c r="B91" s="20"/>
       <c r="C91" s="4"/>
     </row>
-    <row r="92" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="92" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="21"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
     </row>
-    <row r="93" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="93" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="21"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
     </row>
-    <row r="94" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="94" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="21"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
     </row>
-    <row r="95" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="95" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="21"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
     </row>
-    <row r="96" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="96" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="21"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
     </row>
-    <row r="97" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="97" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="21"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
     </row>
-    <row r="98" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="98" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="21"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
     </row>
-    <row r="99" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="99" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="25"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
     </row>
-    <row r="100" spans="1:3" ht="15.75">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="2"/>
     </row>
-    <row r="101" spans="1:3" s="4" customFormat="1" ht="15.75">
+    <row r="101" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B101" s="20"/>
     </row>
-    <row r="102" spans="1:3" ht="15.75">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="4"/>
     </row>
-    <row r="103" spans="1:3" ht="15.75">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="4"/>
       <c r="B103" s="20"/>
       <c r="C103" s="4"/>
     </row>
-    <row r="104" spans="1:3" ht="15.75">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="4"/>
     </row>
-    <row r="105" spans="1:3" ht="15.75">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="4"/>
       <c r="B105" s="20"/>
       <c r="C105" s="4"/>
     </row>
-    <row r="106" spans="1:3" ht="15.75">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="4"/>
     </row>
-    <row r="107" spans="1:3" ht="15.75">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="4"/>
       <c r="B107" s="20"/>
       <c r="C107" s="4"/>
     </row>
-    <row r="108" spans="1:3" ht="15.75">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="2"/>
     </row>
-    <row r="109" spans="1:3" ht="15.75">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="4"/>
       <c r="B109" s="20"/>
       <c r="C109" s="2"/>
     </row>
-    <row r="110" spans="1:3" ht="15.75">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="4"/>
     </row>
-    <row r="111" spans="1:3" ht="15.75">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="4"/>
     </row>
-    <row r="112" spans="1:3" ht="15.75">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="4"/>
     </row>
-    <row r="113" spans="1:3" ht="15.75">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B113" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B113" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="15.75">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="4"/>
       <c r="B114" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>164</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="16.5">
-      <c r="A115" t="s">
-        <v>166</v>
-      </c>
       <c r="B115" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C115" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C115" s="13" t="s">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B116" s="20" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" ht="15.75">
-      <c r="B116" s="20" t="s">
+      <c r="C116" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C116" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="15.75">
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B117" s="20"/>
       <c r="C117" s="4"/>
     </row>
-    <row r="118" spans="1:3" ht="15.75">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B118" s="20"/>
       <c r="C118" s="4"/>
     </row>
-    <row r="119" spans="1:3" ht="15.75">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C119" s="13"/>
     </row>
-    <row r="120" spans="1:3" ht="15.75">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C120" s="13"/>
     </row>
-    <row r="121" spans="1:3" ht="15.75">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C121" s="13"/>
     </row>
-    <row r="122" spans="1:3" ht="15.75">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C122" s="13"/>
     </row>
-    <row r="123" spans="1:3" ht="15.75">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C123" s="13"/>
     </row>
-    <row r="124" spans="1:3" ht="15.75">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C124" s="4"/>
     </row>
-    <row r="125" spans="1:3" ht="15.75">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C125" s="4"/>
     </row>
-    <row r="126" spans="1:3" ht="15.75">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C126" s="4"/>
     </row>
-    <row r="127" spans="1:3" ht="15.75">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C127" s="4"/>
     </row>
-    <row r="128" spans="1:3" ht="15.75">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C128" s="4"/>
     </row>
-    <row r="129" spans="2:3" ht="15.75">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B129" s="20"/>
       <c r="C129" s="4"/>
     </row>
-    <row r="130" spans="2:3" ht="15.75">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B130" s="20"/>
       <c r="C130" s="4"/>
     </row>
-    <row r="131" spans="2:3" ht="15.75">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B131" s="20"/>
       <c r="C131" s="4"/>
     </row>
-    <row r="132" spans="2:3" ht="15.75">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B132" s="20"/>
       <c r="C132" s="4"/>
     </row>
-    <row r="133" spans="2:3" ht="15.75">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B133" s="20"/>
       <c r="C133" s="4"/>
     </row>
-    <row r="134" spans="2:3" ht="15.75">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B134" s="20"/>
       <c r="C134" s="4"/>
     </row>
-    <row r="135" spans="2:3" ht="15.75">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B135" s="20"/>
       <c r="C135" s="4"/>
     </row>
-    <row r="136" spans="2:3" ht="15.75">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B136" s="20"/>
       <c r="C136" s="4"/>
     </row>
-    <row r="137" spans="2:3" ht="15.75">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B137" s="20"/>
       <c r="C137" s="4"/>
     </row>
-    <row r="138" spans="2:3" ht="15.75">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B138" s="20"/>
       <c r="C138" s="4"/>
     </row>
-    <row r="139" spans="2:3" ht="15.75">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B139" s="20"/>
       <c r="C139" s="4"/>
     </row>
-    <row r="140" spans="2:3" ht="15.75">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B140" s="20"/>
       <c r="C140" s="4"/>
     </row>
-    <row r="141" spans="2:3" ht="15.75">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B141" s="20"/>
       <c r="C141" s="4"/>
     </row>
-    <row r="142" spans="2:3" ht="15.75">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B142" s="20"/>
       <c r="C142" s="4"/>
     </row>
-    <row r="143" spans="2:3" ht="15.75">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B143" s="20"/>
       <c r="C143" s="4"/>
     </row>
-    <row r="144" spans="2:3" ht="15.75">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B144" s="20"/>
       <c r="C144" s="4"/>
     </row>
-    <row r="145" spans="2:3" ht="15.75">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B145" s="20"/>
       <c r="C145" s="4"/>
     </row>
-    <row r="146" spans="2:3" ht="15.75">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B146" s="20"/>
       <c r="C146" s="4"/>
     </row>
-    <row r="147" spans="2:3" ht="15.75">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B147" s="20"/>
       <c r="C147" s="4"/>
     </row>
-    <row r="148" spans="2:3" ht="15.75">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B148" s="20"/>
       <c r="C148" s="4"/>
     </row>
-    <row r="149" spans="2:3" ht="15.75">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B149" s="20"/>
       <c r="C149" s="4"/>
     </row>
-    <row r="150" spans="2:3" ht="15.75">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
     </row>
-    <row r="151" spans="2:3" ht="15.75">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
     </row>
-    <row r="152" spans="2:3" ht="15.75">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
     </row>
-    <row r="153" spans="2:3" ht="15.75">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
     </row>
-    <row r="154" spans="2:3" ht="15.75">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
     </row>
-    <row r="155" spans="2:3" ht="15.75">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B155" s="20"/>
       <c r="C155" s="4"/>
     </row>
-    <row r="156" spans="2:3" ht="15.75"/>
-    <row r="157" spans="2:3" ht="15.75"/>
-    <row r="158" spans="2:3" ht="15.75"/>
-    <row r="159" spans="2:3" ht="15.75"/>
-    <row r="160" spans="2:3" ht="15.75"/>
-    <row r="161" ht="15.75"/>
-    <row r="162" ht="15.75"/>
-    <row r="163" ht="15.75"/>
-    <row r="164" ht="15.75"/>
-    <row r="165" ht="15.75"/>
-    <row r="166" ht="15.75"/>
-    <row r="167" ht="15.75"/>
-    <row r="168" ht="15.75"/>
-    <row r="169" ht="15.75"/>
-    <row r="170" ht="15.75"/>
-    <row r="171" ht="15.75"/>
-    <row r="172" ht="15.75"/>
-    <row r="173" ht="15.75"/>
-    <row r="174" ht="15.75"/>
-    <row r="177" ht="15.75"/>
-    <row r="178" ht="15.75"/>
-    <row r="179" ht="15.75"/>
-    <row r="180" ht="15.75"/>
-    <row r="181" ht="15.75"/>
-    <row r="182" ht="15.75"/>
-    <row r="187" ht="15.75"/>
-    <row r="188" ht="15.75"/>
-    <row r="189" ht="15.75"/>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" display="https://attack.mitre.org/techniques/T1640" xr:uid="{2C5C7A7D-225B-4A4D-BE0C-DDE4D85CED2B}"/>
     <hyperlink ref="C7" r:id="rId2" display="https://attack.mitre.org/techniques/T1398" xr:uid="{C1E4A868-2179-E348-A553-E99020C23219}"/>
@@ -36657,19 +36580,19 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView zoomScale="97" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="9.875" customWidth="1"/>
-    <col min="3" max="3" width="72.875" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="72.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>10</v>
@@ -36678,14 +36601,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>51</v>
       </c>
@@ -36696,7 +36619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="20" t="s">
         <v>23</v>
@@ -36705,79 +36628,79 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="17.100000000000001">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="17.100000000000001">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17.100000000000001">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.100000000000001">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17.100000000000001">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17.100000000000001">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="20" t="s">
         <v>88</v>
@@ -36786,9 +36709,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>25</v>
@@ -36797,7 +36720,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="20" t="s">
         <v>27</v>
@@ -36806,107 +36729,107 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17.25" customHeight="1">
+    </row>
+    <row r="20" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="20" t="s">
         <v>190</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="20" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C27" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B28" s="20"/>
     </row>
@@ -36930,16 +36853,16 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.875" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>10</v>
@@ -36948,146 +36871,146 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" s="20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" s="20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" s="20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" s="20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B16" s="20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="16.5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="20" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="16.5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="16.5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="20" t="s">
         <v>33</v>
       </c>
@@ -37095,280 +37018,280 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="16.5">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="20" t="s">
-        <v>235</v>
+        <v>35</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="16.5">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="20" t="s">
-        <v>237</v>
+        <v>37</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="16.5">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="20" t="s">
-        <v>238</v>
+        <v>39</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="16.5">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="20" t="s">
-        <v>239</v>
+        <v>41</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="15.75">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C24" s="4" t="s">
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26" s="20" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" ht="15.75">
-      <c r="B25" s="20" t="s">
+      <c r="C26" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="15.75">
-      <c r="B26" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" s="9"/>
       <c r="C29" s="13"/>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30" s="9"/>
       <c r="C30" s="13"/>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B31" s="9"/>
       <c r="C31" s="13"/>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B32" s="9"/>
       <c r="C32" s="13"/>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="9"/>
       <c r="C33" s="13"/>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="9"/>
       <c r="C34" s="13"/>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="9"/>
       <c r="C35" s="13"/>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="9"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37" s="9"/>
       <c r="C37" s="13"/>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" s="9"/>
       <c r="C38" s="13"/>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39" s="9"/>
       <c r="C39" s="13"/>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40" s="9"/>
       <c r="C40" s="13"/>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41" s="9"/>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42" s="9"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43" s="9"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44" s="9"/>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45" s="9"/>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46" s="9"/>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47" s="9"/>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48" s="9"/>
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B49" s="9"/>
       <c r="C49" s="4"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B50" s="9"/>
       <c r="C50" s="4"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B51" s="9"/>
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B52" s="9"/>
       <c r="C52" s="4"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B53" s="9"/>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B54" s="9"/>
       <c r="C54" s="4"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B55" s="9"/>
       <c r="C55" s="13"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B56" s="9"/>
       <c r="C56" s="13"/>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B57" s="9"/>
       <c r="C57" s="13"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B58" s="9"/>
       <c r="C58" s="13"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B59" s="9"/>
       <c r="C59" s="13"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="4"/>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B61" s="9"/>
       <c r="C61" s="4"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B62" s="9"/>
       <c r="C62" s="4"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B63" s="9"/>
       <c r="C63" s="4"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="13"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B65" s="9"/>
       <c r="C65" s="13"/>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B66" s="9"/>
       <c r="C66" s="13"/>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B67" s="9"/>
       <c r="C67" s="13"/>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B68" s="9"/>
       <c r="C68" s="13"/>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B69" s="9"/>
       <c r="C69" s="4"/>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B70" s="9"/>
       <c r="C70" s="4"/>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B71" s="9"/>
       <c r="C71" s="4"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B72" s="9"/>
       <c r="C72" s="4"/>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B73" s="9"/>
       <c r="C73" s="4"/>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B74" s="9"/>
       <c r="C74" s="4"/>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="13"/>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="13"/>
@@ -37405,16 +37328,16 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.875" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.875" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>10</v>
@@ -37423,18 +37346,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17.100000000000001">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>29</v>
       </c>
@@ -37442,7 +37365,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.100000000000001">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
         <v>31</v>
       </c>
@@ -37450,40 +37373,40 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="13"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="13"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="15.75">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.100000000000001">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>80</v>
@@ -37492,36 +37415,36 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B10" s="26" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>261</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75">
-      <c r="B11" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75">
-      <c r="B12" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17.100000000000001">
-      <c r="A13" t="s">
-        <v>265</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>17</v>
@@ -37530,7 +37453,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17.100000000000001">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="9" t="s">
         <v>23</v>
       </c>
@@ -37538,39 +37461,39 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17.100000000000001">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17.100000000000001">
-      <c r="B16" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B17" s="18" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B18" s="18" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B19" s="18" t="s">
         <v>49</v>
       </c>
@@ -37578,34 +37501,34 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B20" s="26" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B21" s="26" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B23" s="26" t="s">
         <v>80</v>
       </c>
@@ -37613,33 +37536,33 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.5">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B24" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="C24" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B25" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="C25" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B26" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.5">
-      <c r="B25" s="27" t="s">
-        <v>276</v>
-      </c>
-      <c r="C25" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.5">
-      <c r="B26" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="C26" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>23</v>
@@ -37648,33 +37571,33 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="13"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="13"/>
@@ -37703,20 +37626,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C914616-D369-4005-B867-853911BC6BFE}">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A79" sqref="A78:A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.875" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.875" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>10</v>
@@ -37725,16 +37648,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="13"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>65</v>
@@ -37743,7 +37666,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="16" t="s">
         <v>67</v>
       </c>
@@ -37751,9 +37674,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>17</v>
@@ -37762,17 +37685,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" s="29" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>49</v>
@@ -37781,7 +37704,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
@@ -37789,34 +37712,34 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="16" t="s">
         <v>65</v>
       </c>
@@ -37824,7 +37747,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="16" t="s">
         <v>67</v>
       </c>
@@ -37832,17 +37755,17 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="29" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>82</v>
@@ -37851,7 +37774,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B16" s="9" t="s">
         <v>84</v>
       </c>
@@ -37859,283 +37782,277 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B17" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B18" s="9" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="13"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="13"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B21" s="9"/>
       <c r="C21" s="13"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B22" s="9"/>
       <c r="C22" s="13"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B23" s="9"/>
       <c r="C23" s="13"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B24" s="9"/>
       <c r="C24" s="13"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B25" s="9"/>
       <c r="C25" s="13"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B26" s="9"/>
       <c r="C26" s="13"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B27" s="9"/>
       <c r="C27" s="13"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B30" s="9"/>
       <c r="C30" s="13"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B31" s="9"/>
       <c r="C31" s="13"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B32" s="9"/>
       <c r="C32" s="13"/>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="9"/>
       <c r="C33" s="13"/>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="9"/>
       <c r="C34" s="13"/>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="9"/>
       <c r="C35" s="13"/>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="9"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37" s="9"/>
       <c r="C37" s="13"/>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" s="9"/>
       <c r="C38" s="13"/>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39" s="9"/>
       <c r="C39" s="13"/>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40" s="9"/>
       <c r="C40" s="13"/>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41" s="9"/>
       <c r="C41" s="13"/>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42" s="9"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43" s="9"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44" s="9"/>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45" s="9"/>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46" s="9"/>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47" s="9"/>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48" s="9"/>
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B49" s="9"/>
       <c r="C49" s="4"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B50" s="9"/>
       <c r="C50" s="4"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B51" s="9"/>
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B52" s="9"/>
       <c r="C52" s="4"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B53" s="9"/>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B54" s="9"/>
       <c r="C54" s="4"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B55" s="9"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B56" s="9"/>
       <c r="C56" s="13"/>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B57" s="9"/>
       <c r="C57" s="13"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B58" s="9"/>
       <c r="C58" s="13"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B59" s="9"/>
       <c r="C59" s="13"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B60" s="9"/>
       <c r="C60" s="13"/>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="4"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B62" s="9"/>
       <c r="C62" s="4"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B63" s="9"/>
       <c r="C63" s="4"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B64" s="9"/>
       <c r="C64" s="4"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="13"/>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B66" s="9"/>
       <c r="C66" s="13"/>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B67" s="9"/>
       <c r="C67" s="13"/>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B68" s="9"/>
       <c r="C68" s="13"/>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B69" s="9"/>
       <c r="C69" s="13"/>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B70" s="9"/>
       <c r="C70" s="4"/>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B71" s="9"/>
       <c r="C71" s="4"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B72" s="9"/>
       <c r="C72" s="4"/>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B73" s="9"/>
       <c r="C73" s="4"/>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B74" s="9"/>
       <c r="C74" s="4"/>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B75" s="9"/>
       <c r="C75" s="4"/>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="13"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>161</v>
-      </c>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>166</v>
-      </c>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B79" s="9"/>
       <c r="C79" s="13"/>
     </row>
@@ -38161,1126 +38078,1125 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFA46F8-B8B6-4B4E-AEB2-FE94B78BB5E8}">
   <dimension ref="A1:D165"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="41" customWidth="1"/>
-    <col min="3" max="3" width="83.5" style="32" customWidth="1"/>
-    <col min="4" max="16384" width="10.5" style="32"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="83.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="33" t="s">
-        <v>293</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="B2" s="22"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="34" t="s">
-        <v>294</v>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="B3" s="22"/>
-      <c r="C3" s="34"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="34" t="s">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="34" t="s">
-        <v>295</v>
+        <v>167</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="22"/>
     </row>
-    <row r="7" spans="1:4" ht="17.100000000000001">
-      <c r="A7" s="34" t="s">
-        <v>296</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17.100000000000001">
-      <c r="A8" s="34"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
       <c r="B8" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="34"/>
+        <v>293</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
       <c r="B9" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C10" s="13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17.100000000000001">
-      <c r="A10" s="34"/>
-      <c r="B10" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17.100000000000001">
-      <c r="A11" s="34"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
       <c r="B11" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17.100000000000001">
-      <c r="A12" s="34"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
       <c r="B12" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.100000000000001">
-      <c r="A13" s="34"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
       <c r="B13" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="17.100000000000001">
-      <c r="A14" s="34"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
       <c r="B14" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17.100000000000001">
-      <c r="A15" s="34"/>
+        <v>257</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
       <c r="B15" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17.100000000000001">
-      <c r="A16" s="34"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
       <c r="B16" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="B21" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17.100000000000001">
-      <c r="A17" s="34"/>
-      <c r="B17" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17.100000000000001">
-      <c r="A18" s="34" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17.100000000000001">
-      <c r="A19" s="34"/>
-      <c r="B19" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5">
-      <c r="A20" s="34"/>
-      <c r="B20" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5">
-      <c r="A21" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75">
-      <c r="A22" s="34"/>
-      <c r="B22" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="34"/>
-      <c r="B23" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="17.100000000000001">
-      <c r="A24" s="34"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
       <c r="B24" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="C24" s="36" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="17.100000000000001">
-      <c r="A25" s="34"/>
+      <c r="C24" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
       <c r="B25" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="17.100000000000001">
-      <c r="A26" s="34"/>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
       <c r="B26" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A27" s="34"/>
+    <row r="27" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
       <c r="B27" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A28" s="34"/>
+    <row r="28" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
       <c r="B28" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="17.100000000000001">
-      <c r="A29" s="34"/>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
       <c r="B29" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17.100000000000001">
-      <c r="A30" s="34"/>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
       <c r="B30" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="B31" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="17.100000000000001">
-      <c r="A31" s="34"/>
-      <c r="B31" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="33"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="33"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="34" t="s">
-        <v>310</v>
       </c>
       <c r="B34" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="34"/>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
       <c r="B35" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="33" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B36" s="22"/>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="13"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="33"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="34" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="2"/>
+      <c r="B39" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="36"/>
-    </row>
-    <row r="38" spans="1:3" ht="17.100000000000001">
-      <c r="A38" s="34" t="s">
+      <c r="C39" t="s">
         <v>313</v>
       </c>
-      <c r="B38" s="22" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="2"/>
+      <c r="B40" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="2"/>
+      <c r="B41" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="2"/>
+      <c r="B42" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="2"/>
+      <c r="B43" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="2"/>
+      <c r="B45" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C38" s="36" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="34"/>
-      <c r="B39" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="34"/>
-      <c r="B40" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="34"/>
-      <c r="B41" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="34"/>
-      <c r="B42" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="17.100000000000001">
-      <c r="A43" s="34"/>
-      <c r="B43" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="17.100000000000001">
-      <c r="A45" s="34"/>
-      <c r="B45" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="34" t="s">
-        <v>318</v>
-      </c>
       <c r="B46" s="22"/>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="34" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="17.100000000000001">
-      <c r="A48" s="34" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="17.100000000000001">
-      <c r="A49" s="34"/>
-      <c r="B49" s="39" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="2"/>
+      <c r="B49" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="17.100000000000001">
-      <c r="A50" s="34"/>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="2"/>
       <c r="B50" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="17.100000000000001">
-      <c r="A51" s="34"/>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="2"/>
       <c r="B51" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="17.100000000000001">
-      <c r="A52" s="34"/>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="2"/>
       <c r="B52" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="34"/>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="2"/>
       <c r="B53" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C53" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="34"/>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="2"/>
       <c r="B54" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C54" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="34"/>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="2"/>
       <c r="B55" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="34"/>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="2"/>
       <c r="B56" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="32" t="s">
+      <c r="C56" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="34"/>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="2"/>
       <c r="B57" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C57" s="32" t="s">
+      <c r="C57" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="34"/>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="2"/>
       <c r="B58" s="22" t="s">
-        <v>319</v>
-      </c>
-      <c r="C58" s="32" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="34"/>
+        <v>315</v>
+      </c>
+      <c r="C58" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="2"/>
       <c r="B59" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="C59" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="2"/>
+      <c r="B60" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="C60" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="2"/>
+      <c r="B61" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="C61" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="34"/>
-      <c r="B60" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="C60" s="32" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="34"/>
-      <c r="B61" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="C61" s="32" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="34"/>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="2"/>
       <c r="B62" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="C62" s="32" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="17.100000000000001">
-      <c r="A63" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="C62" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B63" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C63" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="34" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="2"/>
+      <c r="B65" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="2"/>
+      <c r="B66" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B64" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="C64" s="34" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="34"/>
-      <c r="B65" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="C65" s="34" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="17.100000000000001">
-      <c r="A66" s="34"/>
-      <c r="B66" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C66" s="36" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" s="42" customFormat="1" ht="15" customHeight="1">
-      <c r="A67" s="34" t="s">
-        <v>328</v>
-      </c>
       <c r="B67" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="C67" s="36" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="17.100000000000001">
-      <c r="A68" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B68" s="43" t="s">
+      <c r="C67" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="C68" s="38" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="34" t="s">
-        <v>246</v>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="B69" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="32" t="s">
+      <c r="C69" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="34"/>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="2"/>
       <c r="B70" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="C70" s="32" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="34"/>
+        <v>324</v>
+      </c>
+      <c r="C70" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="2"/>
       <c r="B71" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="C71" s="32" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="34" t="s">
-        <v>332</v>
+      <c r="C71" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="B72" s="22"/>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="34" t="s">
-        <v>120</v>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="B73" s="22"/>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="34" t="s">
-        <v>333</v>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="B74" s="22"/>
-      <c r="C74" s="34"/>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="34"/>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="2"/>
       <c r="B75" s="22"/>
-      <c r="C75" s="36"/>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="34"/>
+      <c r="C75" s="13"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="2"/>
       <c r="B76" s="22"/>
-      <c r="C76" s="36"/>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="34"/>
+      <c r="C76" s="13"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="2"/>
       <c r="B77" s="22"/>
-      <c r="C77" s="36"/>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="34"/>
+      <c r="C77" s="13"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="2"/>
       <c r="B78" s="22"/>
-      <c r="C78" s="36"/>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="34"/>
+      <c r="C78" s="13"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="2"/>
       <c r="B79" s="22"/>
-      <c r="C79" s="36"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="34"/>
+      <c r="C79" s="13"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="2"/>
       <c r="B80" s="22"/>
-      <c r="C80" s="36"/>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="34"/>
+      <c r="C80" s="13"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="2"/>
       <c r="B81" s="22"/>
-      <c r="C81" s="36"/>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="34"/>
+      <c r="C81" s="13"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="2"/>
       <c r="B82" s="22"/>
-      <c r="C82" s="36"/>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="34"/>
+      <c r="C82" s="13"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="2"/>
       <c r="B83" s="22"/>
-      <c r="C83" s="36"/>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="34"/>
+      <c r="C83" s="13"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="2"/>
       <c r="B84" s="22"/>
-      <c r="C84" s="36"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="34"/>
+      <c r="C84" s="13"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="2"/>
       <c r="B85" s="22"/>
-      <c r="C85" s="36"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="34"/>
+      <c r="C85" s="13"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="2"/>
       <c r="B86" s="22"/>
-      <c r="C86" s="36"/>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="34"/>
+      <c r="C86" s="13"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="2"/>
       <c r="B87" s="22"/>
-      <c r="C87" s="36"/>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="34"/>
+      <c r="C87" s="13"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="2"/>
       <c r="B88" s="22"/>
-      <c r="C88" s="36"/>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="34"/>
+      <c r="C88" s="13"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="2"/>
       <c r="B89" s="22"/>
-      <c r="C89" s="36"/>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="34"/>
+      <c r="C89" s="13"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="2"/>
       <c r="B90" s="22"/>
-      <c r="C90" s="36"/>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="34"/>
+      <c r="C90" s="13"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="2"/>
       <c r="B91" s="22"/>
-      <c r="C91" s="36"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="34"/>
+      <c r="C91" s="13"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="2"/>
       <c r="B92" s="22"/>
     </row>
-    <row r="93" spans="1:3" s="42" customFormat="1" ht="15" customHeight="1">
+    <row r="93" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="21"/>
       <c r="B93" s="22"/>
-      <c r="C93" s="36"/>
-    </row>
-    <row r="94" spans="1:3" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="C93" s="13"/>
+    </row>
+    <row r="94" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="21"/>
       <c r="B94" s="22"/>
-      <c r="C94" s="36"/>
-    </row>
-    <row r="95" spans="1:3" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="C94" s="13"/>
+    </row>
+    <row r="95" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="21"/>
       <c r="B95" s="22"/>
-      <c r="C95" s="36"/>
-    </row>
-    <row r="96" spans="1:3" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="C95" s="13"/>
+    </row>
+    <row r="96" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="21"/>
       <c r="B96" s="22"/>
-      <c r="C96" s="36"/>
-    </row>
-    <row r="97" spans="1:3" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="C96" s="13"/>
+    </row>
+    <row r="97" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="21"/>
       <c r="B97" s="22"/>
-      <c r="C97" s="36"/>
-    </row>
-    <row r="98" spans="1:3" s="42" customFormat="1" ht="15" customHeight="1">
-      <c r="A98" s="34" t="s">
+      <c r="C97" s="13"/>
+    </row>
+    <row r="98" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B98" s="22"/>
+      <c r="C98" s="13"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B99" s="22"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="2"/>
+      <c r="B100" s="22"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="2"/>
+      <c r="B101" s="22"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="2"/>
+      <c r="B102" s="22"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="2"/>
+      <c r="B103" s="22"/>
+      <c r="C103" s="13"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B104" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="2"/>
+      <c r="B105" s="22"/>
+      <c r="C105" s="13"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B106" s="22"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="2"/>
+      <c r="B107" s="22"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B108" s="22"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" s="2"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="13"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" s="2"/>
+      <c r="B110" s="22"/>
+      <c r="C110" s="13"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" s="2"/>
+      <c r="B111" s="22"/>
+      <c r="C111" s="13"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" s="2"/>
+      <c r="B112" s="22"/>
+      <c r="C112" s="13"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" s="2"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="13"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" s="2"/>
+      <c r="B114" s="22"/>
+      <c r="C114" s="13"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" s="2"/>
+      <c r="B115" s="22"/>
+      <c r="C115" s="13"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" s="2"/>
+      <c r="B116" s="22"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B117" s="22"/>
+      <c r="C117" s="13"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" s="2"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="12"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="2"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="13"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="2"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="13"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" s="2"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="13"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" s="2"/>
+      <c r="B122" s="22"/>
+      <c r="C122" s="13"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="2"/>
+      <c r="B123" s="22"/>
+      <c r="C123" s="13"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="2"/>
+      <c r="B124" s="22"/>
+      <c r="C124" s="13"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="2"/>
+      <c r="B125" s="22"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" s="2"/>
+      <c r="B126" s="22"/>
+      <c r="C126" s="13"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" s="2"/>
+      <c r="B127" s="22"/>
+      <c r="C127" s="13"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B128" s="22"/>
+      <c r="C128" s="4"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B98" s="22"/>
-      <c r="C98" s="36"/>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="34" t="s">
+      <c r="B129" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B99" s="22"/>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="34"/>
-      <c r="B100" s="22"/>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="34"/>
-      <c r="B101" s="22"/>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="34"/>
-      <c r="B102" s="22"/>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="34"/>
-      <c r="B103" s="22"/>
-      <c r="C103" s="36"/>
-    </row>
-    <row r="104" spans="1:3" ht="17.100000000000001">
-      <c r="A104" s="34" t="s">
+      <c r="B130" s="22"/>
+      <c r="C130" s="4"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B104" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="C104" s="36" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="34"/>
-      <c r="B105" s="22"/>
-      <c r="C105" s="36"/>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="34" t="s">
+      <c r="B131" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" s="2"/>
+      <c r="B132" s="22"/>
+      <c r="C132" s="13"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" s="2"/>
+      <c r="B133" s="22"/>
+      <c r="C133" s="13"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B106" s="22"/>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="34"/>
-      <c r="B107" s="22"/>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="34" t="s">
+      <c r="B134" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="B108" s="22"/>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="34"/>
-      <c r="B109" s="22"/>
-      <c r="C109" s="36"/>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="34"/>
-      <c r="B110" s="22"/>
-      <c r="C110" s="36"/>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="34"/>
-      <c r="B111" s="22"/>
-      <c r="C111" s="36"/>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="34"/>
-      <c r="B112" s="22"/>
-      <c r="C112" s="36"/>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="34"/>
-      <c r="B113" s="22"/>
-      <c r="C113" s="36"/>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="34"/>
-      <c r="B114" s="22"/>
-      <c r="C114" s="36"/>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="34"/>
-      <c r="B115" s="22"/>
-      <c r="C115" s="36"/>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="34"/>
-      <c r="B116" s="22"/>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="B117" s="22"/>
-      <c r="C117" s="36"/>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="34"/>
-      <c r="B118" s="22"/>
-      <c r="C118" s="44"/>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="34"/>
-      <c r="B119" s="22"/>
-      <c r="C119" s="36"/>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="34"/>
-      <c r="B120" s="22"/>
-      <c r="C120" s="36"/>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="34"/>
-      <c r="B121" s="22"/>
-      <c r="C121" s="36"/>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="34"/>
-      <c r="B122" s="22"/>
-      <c r="C122" s="36"/>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="34"/>
-      <c r="B123" s="22"/>
-      <c r="C123" s="36"/>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="34"/>
-      <c r="B124" s="22"/>
-      <c r="C124" s="36"/>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="34"/>
-      <c r="B125" s="22"/>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="34"/>
-      <c r="B126" s="22"/>
-      <c r="C126" s="36"/>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="34"/>
-      <c r="B127" s="22"/>
-      <c r="C127" s="36"/>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="33" t="s">
+      <c r="C134" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B128" s="22"/>
-      <c r="C128" s="33"/>
-    </row>
-    <row r="129" spans="1:3" ht="17.100000000000001">
-      <c r="A129" s="34" t="s">
-        <v>340</v>
-      </c>
-      <c r="B129" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="C129" s="36" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="34" t="s">
-        <v>341</v>
-      </c>
-      <c r="B130" s="22"/>
-      <c r="C130" s="33"/>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="34" t="s">
-        <v>342</v>
-      </c>
-      <c r="B131" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C131" s="33" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="34"/>
-      <c r="B132" s="22"/>
-      <c r="C132" s="36"/>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="34"/>
-      <c r="B133" s="22"/>
-      <c r="C133" s="36"/>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="B134" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="C134" s="33" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B135" s="22"/>
     </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="33" t="s">
-        <v>161</v>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="B136" s="22"/>
     </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="32" t="s">
-        <v>166</v>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>164</v>
       </c>
       <c r="B137" s="22"/>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B138" s="22"/>
     </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="33"/>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" s="4"/>
       <c r="B139" s="22"/>
     </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="33"/>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" s="4"/>
       <c r="B140" s="22"/>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B141" s="22"/>
-      <c r="C141" s="34"/>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="C141" s="2"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B142" s="22"/>
-      <c r="C142" s="34"/>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="C142" s="2"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B143" s="22"/>
-      <c r="C143" s="34"/>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="C143" s="2"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B144" s="22"/>
-      <c r="C144" s="34"/>
-    </row>
-    <row r="145" spans="2:3">
+      <c r="C144" s="2"/>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B145" s="22"/>
-      <c r="C145" s="34"/>
-    </row>
-    <row r="146" spans="2:3">
+      <c r="C145" s="2"/>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B146" s="22"/>
-      <c r="C146" s="33"/>
-    </row>
-    <row r="147" spans="2:3">
+      <c r="C146" s="4"/>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B147" s="22"/>
-      <c r="C147" s="36"/>
-    </row>
-    <row r="148" spans="2:3">
+      <c r="C147" s="13"/>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B148" s="22"/>
     </row>
-    <row r="149" spans="2:3">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B149" s="22"/>
     </row>
-    <row r="150" spans="2:3">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B150" s="22"/>
     </row>
-    <row r="151" spans="2:3">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B151" s="22"/>
     </row>
-    <row r="152" spans="2:3">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B152" s="22"/>
-      <c r="C152" s="36"/>
-    </row>
-    <row r="153" spans="2:3">
+      <c r="C152" s="13"/>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B153" s="22"/>
-      <c r="C153" s="36"/>
-    </row>
-    <row r="154" spans="2:3">
+      <c r="C153" s="13"/>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B154" s="22"/>
-      <c r="C154" s="36"/>
-    </row>
-    <row r="155" spans="2:3">
+      <c r="C154" s="13"/>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B155" s="22"/>
-      <c r="C155" s="36"/>
-    </row>
-    <row r="156" spans="2:3">
+      <c r="C155" s="13"/>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B156" s="22"/>
-      <c r="C156" s="36"/>
-    </row>
-    <row r="157" spans="2:3">
+      <c r="C156" s="13"/>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B157" s="22"/>
-      <c r="C157" s="36"/>
-    </row>
-    <row r="158" spans="2:3">
+      <c r="C157" s="13"/>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B158" s="22"/>
     </row>
-    <row r="159" spans="2:3">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B159" s="22"/>
     </row>
-    <row r="160" spans="2:3">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B160" s="22"/>
     </row>
-    <row r="161" spans="2:3">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B161" s="22"/>
     </row>
-    <row r="162" spans="2:3">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B162" s="22"/>
     </row>
-    <row r="163" spans="2:3">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B163" s="22"/>
     </row>
-    <row r="164" spans="2:3">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B164" s="22"/>
-      <c r="C164" s="44"/>
-    </row>
-    <row r="165" spans="2:3">
+      <c r="C164" s="12"/>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B165" s="22"/>
     </row>
   </sheetData>
@@ -39302,16 +39218,16 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
     <col min="3" max="3" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>10</v>
@@ -39320,143 +39236,143 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B7" s="9"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" ht="15.75">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C19" s="2"/>
     </row>
@@ -39471,242 +39387,241 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23" style="32" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.5" style="32"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="45" t="s">
-        <v>364</v>
-      </c>
-      <c r="B1" s="46" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="C2" s="34"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="32" t="s">
-        <v>366</v>
-      </c>
-      <c r="C3" s="34"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="32" t="s">
-        <v>367</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>361</v>
       </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="34"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="32" t="s">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>69</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>315</v>
+      </c>
+      <c r="C15" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B16" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C18" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="B17" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B19" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="C19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>362</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>363</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="13"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>364</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>365</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="13"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>366</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>367</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>368</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="34"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="36"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="34"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="36"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="36"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="32" t="s">
-        <v>374</v>
-      </c>
       <c r="B26" s="20"/>
-      <c r="C26" s="34"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="34"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="34"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29" s="34"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>333</v>
+      </c>
+      <c r="B27" s="38"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" s="38"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39715,6 +39630,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Date_x0020__x0026__x0020_Time xmlns="0ca01121-da18-407e-86a0-e0ab1b6c7d8c" xsi:nil="true"/>
@@ -39731,15 +39655,6 @@
     <CostPer xmlns="0ca01121-da18-407e-86a0-e0ab1b6c7d8c" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40042,13 +39957,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B241570-251F-4639-B053-9597F90135CB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CF67D68-5D9D-4184-8FCF-9F43A8746F62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CF67D68-5D9D-4184-8FCF-9F43A8746F62}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B241570-251F-4639-B053-9597F90135CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0ca01121-da18-407e-86a0-e0ab1b6c7d8c"/>
+    <ds:schemaRef ds:uri="ec3e3de1-934b-464b-893a-587ae869df79"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9FB4FB3-2B6E-4660-906D-2A13ACB54E95}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9FB4FB3-2B6E-4660-906D-2A13ACB54E95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0ca01121-da18-407e-86a0-e0ab1b6c7d8c"/>
+    <ds:schemaRef ds:uri="ec3e3de1-934b-464b-893a-587ae869df79"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/mappings/mobile/xlsx/veris-1_3_7-mappings-mobile_v12.xlsx
+++ b/src/mappings/mobile/xlsx/veris-1_3_7-mappings-mobile_v12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitre-my.sharepoint.com/personal/javoss_mitre_org/Documents/Documents/Veris II/veris-2/src/mappings/mobile/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="6_{ACAA37AD-42AF-4D02-A299-4CDD764FD86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F0DA90D-66DB-4132-855F-A284FBC621B3}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="6_{ACAA37AD-42AF-4D02-A299-4CDD764FD86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E07D8B9-9E78-4B30-A1C2-9CC372875EE8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{698518E7-B140-7645-B530-A1A72BD96EA6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="11" xr2:uid="{698518E7-B140-7645-B530-A1A72BD96EA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="498">
   <si>
     <t>ATT&amp;CK Integration into VERIS</t>
   </si>
@@ -1346,6 +1346,201 @@
   </si>
   <si>
     <t>Hijack</t>
+  </si>
+  <si>
+    <t>action.hacking.variety.Abuse of functionality</t>
+  </si>
+  <si>
+    <t>action.hacking.variety.Exploit misconfig</t>
+  </si>
+  <si>
+    <t>action.malware.variety.Client-side attack</t>
+  </si>
+  <si>
+    <t>attribute.availability.variety.Destruction</t>
+  </si>
+  <si>
+    <t>attribute.availability.variety.Interruption</t>
+  </si>
+  <si>
+    <t>attribute.integrity.variety.Modify configuration</t>
+  </si>
+  <si>
+    <t>action.hacking.vector.Backdoor</t>
+  </si>
+  <si>
+    <t>action.malware.variety.C2</t>
+  </si>
+  <si>
+    <t>action.malware.variety.Modify data</t>
+  </si>
+  <si>
+    <t>action.malware.variety.Backdoor or C2</t>
+  </si>
+  <si>
+    <t>attribute.integrity.variety.Modify privileges</t>
+  </si>
+  <si>
+    <t>action.hacking.vector.Command shell</t>
+  </si>
+  <si>
+    <t>value_chain.distribution.variety.Phone</t>
+  </si>
+  <si>
+    <t>attribute.integrity.variety.Alter behavior</t>
+  </si>
+  <si>
+    <t>action.malware.variety.Capture stored data</t>
+  </si>
+  <si>
+    <t>action.hacking.variety.Backdoor</t>
+  </si>
+  <si>
+    <t>action.hacking.variety.DoS</t>
+  </si>
+  <si>
+    <t>action.malware.variety.DoS</t>
+  </si>
+  <si>
+    <t>attribute.availability.variety.Degradation</t>
+  </si>
+  <si>
+    <t>attribute.availability.variety.Loss</t>
+  </si>
+  <si>
+    <t>action.hacking.variety.Evade Defenses</t>
+  </si>
+  <si>
+    <t>action.hacking.variety.Profile host</t>
+  </si>
+  <si>
+    <t>action.malware.variety.Evade Defenses</t>
+  </si>
+  <si>
+    <t>action.social.variety.Evade Defenses</t>
+  </si>
+  <si>
+    <t>attribute.integrity.variety.Log tampering</t>
+  </si>
+  <si>
+    <t>attribute.integrity.variety.Modify data</t>
+  </si>
+  <si>
+    <t>attribute.availability.variety.Obscuration</t>
+  </si>
+  <si>
+    <t>action.hacking.variety.Exploit vuln</t>
+  </si>
+  <si>
+    <t>action.hacking.variety.Fuzz testing</t>
+  </si>
+  <si>
+    <t>action.malware.variety.Exploit vuln</t>
+  </si>
+  <si>
+    <t>action.hacking.variety.Hijack</t>
+  </si>
+  <si>
+    <t>action.hacking.variety.Unknown</t>
+  </si>
+  <si>
+    <t>action.hacking.variety.Use of stolen creds</t>
+  </si>
+  <si>
+    <t>action.malware.variety.MitM</t>
+  </si>
+  <si>
+    <t>action.hacking.variety.MitM</t>
+  </si>
+  <si>
+    <t>action.hacking.variety.Scan network</t>
+  </si>
+  <si>
+    <t>action.hacking.variety.Other</t>
+  </si>
+  <si>
+    <t>action.malware.variety.Backdoor</t>
+  </si>
+  <si>
+    <t>action.malware.variety.Trojan</t>
+  </si>
+  <si>
+    <t>action.hacking.vector.Partner</t>
+  </si>
+  <si>
+    <t>action.social.vector.Software</t>
+  </si>
+  <si>
+    <t>action.social.vector.Phone</t>
+  </si>
+  <si>
+    <t>attribute.integrity.variety.Hardware tampering</t>
+  </si>
+  <si>
+    <t>action.hacking.vector.Other network service</t>
+  </si>
+  <si>
+    <t>attribute.integrity.variety.Misrepresentation</t>
+  </si>
+  <si>
+    <t>value_chain.non-distribution services.variety.Proxy</t>
+  </si>
+  <si>
+    <t>action.malware.vector.Instant messaging</t>
+  </si>
+  <si>
+    <t>action.social.variety.Pretexting</t>
+  </si>
+  <si>
+    <t>action.social.vector.SMS</t>
+  </si>
+  <si>
+    <t>action.malware.variety.Capture app data</t>
+  </si>
+  <si>
+    <t>action.social.vector.Email</t>
+  </si>
+  <si>
+    <t>action.malware.variety.Disable controls</t>
+  </si>
+  <si>
+    <t>action.malware.variety.Export data</t>
+  </si>
+  <si>
+    <t>action.malware.variety.In-memory</t>
+  </si>
+  <si>
+    <t>action.malware.variety.Ransomware</t>
+  </si>
+  <si>
+    <t>action.malware.variety.Spyware/Keylogger</t>
+  </si>
+  <si>
+    <t>action.malware.variety.Worm</t>
+  </si>
+  <si>
+    <t>action.malware.vector.Removable media</t>
+  </si>
+  <si>
+    <t>action.social.vector.Removable media</t>
+  </si>
+  <si>
+    <t>action.malware.vector.Software update</t>
+  </si>
+  <si>
+    <t>attribute.integrity.variety.Software installation</t>
+  </si>
+  <si>
+    <t>action.malware.vector.Web application - drive-by</t>
+  </si>
+  <si>
+    <t>action.social.vector.Web application</t>
+  </si>
+  <si>
+    <t>action.social.vector.In-person</t>
+  </si>
+  <si>
+    <t>value_chain.targeting.variety.Lost or stolen credentials</t>
   </si>
 </sst>
 </file>
@@ -1623,6 +1818,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2690,8 +2889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B670464-1153-4AA6-978E-5B7FAB2C4B98}">
   <dimension ref="A1:C314"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2710,6 +2909,2622 @@
       </c>
       <c r="C1" s="39" t="s">
         <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1626/","T1626")</f>
+        <v>T1626</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1626/","T1626")</f>
+        <v>T1626</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1626/","T1626")</f>
+        <v>T1626</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1626/001/","T1626.001")</f>
+        <v>T1626.001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1626/001/","T1626.001")</f>
+        <v>T1626.001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1640/","T1640")</f>
+        <v>T1640</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1640/","T1640")</f>
+        <v>T1640</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1640/","T1640")</f>
+        <v>T1640</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1640/","T1640")</f>
+        <v>T1640</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1437/","T1437")</f>
+        <v>T1437</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1437/","T1437")</f>
+        <v>T1437</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1437/","T1437")</f>
+        <v>T1437</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1532/","T1532")</f>
+        <v>T1532</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1532/","T1532")</f>
+        <v>T1532</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1398/","T1398")</f>
+        <v>T1398</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1398/","T1398")</f>
+        <v>T1398</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1398/","T1398")</f>
+        <v>T1398</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1398/","T1398")</f>
+        <v>T1398</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1398/","T1398")</f>
+        <v>T1398</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1623/","T1623")</f>
+        <v>T1623</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1623/","T1623")</f>
+        <v>T1623</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1623/","T1623")</f>
+        <v>T1623</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1623/001/","T1623.001")</f>
+        <v>T1623.001</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1623/001/","T1623.001")</f>
+        <v>T1623.001</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1623/001/","T1623.001")</f>
+        <v>T1623.001</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1624/","T1624")</f>
+        <v>T1624</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1624/","T1624")</f>
+        <v>T1624</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1624/001/","T1624.001")</f>
+        <v>T1624.001</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1624/001/","T1624.001")</f>
+        <v>T1624.001</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1636/","T1636")</f>
+        <v>T1636</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1636/","T1636")</f>
+        <v>T1636</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1636/001/","T1636.001")</f>
+        <v>T1636.001</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1636/001/","T1636.001")</f>
+        <v>T1636.001</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1636/002/","T1636.002")</f>
+        <v>T1636.002</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1636/002/","T1636.002")</f>
+        <v>T1636.002</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1636/003/","T1636.003")</f>
+        <v>T1636.003</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1636/003/","T1636.003")</f>
+        <v>T1636.003</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1636/004/","T1636.004")</f>
+        <v>T1636.004</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1636/004/","T1636.004")</f>
+        <v>T1636.004</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1603/","T1603")</f>
+        <v>T1603</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1603/","T1603")</f>
+        <v>T1603</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1541/","T1541")</f>
+        <v>T1541</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1629/001/","T1629.001")</f>
+        <v>T1629.001</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1629/002/","T1629.002")</f>
+        <v>T1629.002</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1629/002/","T1629.002")</f>
+        <v>T1629.002</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1629/002/","T1629.002")</f>
+        <v>T1629.002</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1521/","T1521")</f>
+        <v>T1521</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1521/","T1521")</f>
+        <v>T1521</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1521/001/","T1521.001")</f>
+        <v>T1521.001</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1521/001/","T1521.001")</f>
+        <v>T1521.001</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1521/002/","T1521.002")</f>
+        <v>T1521.002</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1521/002/","T1521.002")</f>
+        <v>T1521.002</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1642/","T1642")</f>
+        <v>T1642</v>
+      </c>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1642/","T1642")</f>
+        <v>T1642</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1642/","T1642")</f>
+        <v>T1642</v>
+      </c>
+      <c r="B56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1642/","T1642")</f>
+        <v>T1642</v>
+      </c>
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1464/","T1464")</f>
+        <v>T1464</v>
+      </c>
+      <c r="B58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1464/","T1464")</f>
+        <v>T1464</v>
+      </c>
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1464/","T1464")</f>
+        <v>T1464</v>
+      </c>
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1464/","T1464")</f>
+        <v>T1464</v>
+      </c>
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1627/","T1627")</f>
+        <v>T1627</v>
+      </c>
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1627/","T1627")</f>
+        <v>T1627</v>
+      </c>
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1627/","T1627")</f>
+        <v>T1627</v>
+      </c>
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1627/","T1627")</f>
+        <v>T1627</v>
+      </c>
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1627/001/","T1627.001")</f>
+        <v>T1627.001</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1627/001/","T1627.001")</f>
+        <v>T1627.001</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1627/001/","T1627.001")</f>
+        <v>T1627.001</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1627/001/","T1627.001")</f>
+        <v>T1627.001</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1628/","T1628")</f>
+        <v>T1628</v>
+      </c>
+      <c r="B70" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1628/","T1628")</f>
+        <v>T1628</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1628/","T1628")</f>
+        <v>T1628</v>
+      </c>
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1628/001/","T1628.001")</f>
+        <v>T1628.001</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1628/001/","T1628.001")</f>
+        <v>T1628.001</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1628/001/","T1628.001")</f>
+        <v>T1628.001</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1628/002/","T1628.002")</f>
+        <v>T1628.002</v>
+      </c>
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1628/002/","T1628.002")</f>
+        <v>T1628.002</v>
+      </c>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1628/002/","T1628.002")</f>
+        <v>T1628.002</v>
+      </c>
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1630/","T1630")</f>
+        <v>T1630</v>
+      </c>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1630/","T1630")</f>
+        <v>T1630</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1630/","T1630")</f>
+        <v>T1630</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1630/","T1630")</f>
+        <v>T1630</v>
+      </c>
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1630/","T1630")</f>
+        <v>T1630</v>
+      </c>
+      <c r="B83" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1406/","T1406")</f>
+        <v>T1406</v>
+      </c>
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1406/","T1406")</f>
+        <v>T1406</v>
+      </c>
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1406/","T1406")</f>
+        <v>T1406</v>
+      </c>
+      <c r="B86" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1406/","T1406")</f>
+        <v>T1406</v>
+      </c>
+      <c r="B87" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1406/001/","T1406.001")</f>
+        <v>T1406.001</v>
+      </c>
+      <c r="B88" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1406/001/","T1406.001")</f>
+        <v>T1406.001</v>
+      </c>
+      <c r="B89" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1406/001/","T1406.001")</f>
+        <v>T1406.001</v>
+      </c>
+      <c r="B90" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1406/001/","T1406.001")</f>
+        <v>T1406.001</v>
+      </c>
+      <c r="B91" t="s">
+        <v>85</v>
+      </c>
+      <c r="C91" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1406/002/","T1406.002")</f>
+        <v>T1406.002</v>
+      </c>
+      <c r="B92" t="s">
+        <v>87</v>
+      </c>
+      <c r="C92" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1406/002/","T1406.002")</f>
+        <v>T1406.002</v>
+      </c>
+      <c r="B93" t="s">
+        <v>87</v>
+      </c>
+      <c r="C93" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1406/002/","T1406.002")</f>
+        <v>T1406.002</v>
+      </c>
+      <c r="B94" t="s">
+        <v>87</v>
+      </c>
+      <c r="C94" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1406/002/","T1406.002")</f>
+        <v>T1406.002</v>
+      </c>
+      <c r="B95" t="s">
+        <v>87</v>
+      </c>
+      <c r="C95" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1644/","T1644")</f>
+        <v>T1644</v>
+      </c>
+      <c r="B96" t="s">
+        <v>89</v>
+      </c>
+      <c r="C96" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1644/","T1644")</f>
+        <v>T1644</v>
+      </c>
+      <c r="B97" t="s">
+        <v>89</v>
+      </c>
+      <c r="C97" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1644/","T1644")</f>
+        <v>T1644</v>
+      </c>
+      <c r="B98" t="s">
+        <v>89</v>
+      </c>
+      <c r="C98" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1644/","T1644")</f>
+        <v>T1644</v>
+      </c>
+      <c r="B99" t="s">
+        <v>89</v>
+      </c>
+      <c r="C99" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1644/","T1644")</f>
+        <v>T1644</v>
+      </c>
+      <c r="B100" t="s">
+        <v>89</v>
+      </c>
+      <c r="C100" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1404/","T1404")</f>
+        <v>T1404</v>
+      </c>
+      <c r="B101" t="s">
+        <v>92</v>
+      </c>
+      <c r="C101" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1404/","T1404")</f>
+        <v>T1404</v>
+      </c>
+      <c r="B102" t="s">
+        <v>92</v>
+      </c>
+      <c r="C102" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1404/","T1404")</f>
+        <v>T1404</v>
+      </c>
+      <c r="B103" t="s">
+        <v>92</v>
+      </c>
+      <c r="C103" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1428/","T1428")</f>
+        <v>T1428</v>
+      </c>
+      <c r="B104" t="s">
+        <v>94</v>
+      </c>
+      <c r="C104" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1428/","T1428")</f>
+        <v>T1428</v>
+      </c>
+      <c r="B105" t="s">
+        <v>94</v>
+      </c>
+      <c r="C105" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1625/","T1625")</f>
+        <v>T1625</v>
+      </c>
+      <c r="B106" t="s">
+        <v>100</v>
+      </c>
+      <c r="C106" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1625/","T1625")</f>
+        <v>T1625</v>
+      </c>
+      <c r="B107" t="s">
+        <v>100</v>
+      </c>
+      <c r="C107" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1625/001/","T1625.001")</f>
+        <v>T1625.001</v>
+      </c>
+      <c r="B108" t="s">
+        <v>102</v>
+      </c>
+      <c r="C108" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A109" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1625/001/","T1625.001")</f>
+        <v>T1625.001</v>
+      </c>
+      <c r="B109" t="s">
+        <v>102</v>
+      </c>
+      <c r="C109" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1635/001/","T1635.001")</f>
+        <v>T1635.001</v>
+      </c>
+      <c r="B110" t="s">
+        <v>104</v>
+      </c>
+      <c r="C110" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1635/001/","T1635.001")</f>
+        <v>T1635.001</v>
+      </c>
+      <c r="B111" t="s">
+        <v>104</v>
+      </c>
+      <c r="C111" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1635/001/","T1635.001")</f>
+        <v>T1635.001</v>
+      </c>
+      <c r="B112" t="s">
+        <v>104</v>
+      </c>
+      <c r="C112" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1638/","T1638")</f>
+        <v>T1638</v>
+      </c>
+      <c r="B113" t="s">
+        <v>115</v>
+      </c>
+      <c r="C113" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A114" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1426/","T1426")</f>
+        <v>T1426</v>
+      </c>
+      <c r="B114" t="s">
+        <v>122</v>
+      </c>
+      <c r="C114" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A115" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1418/","T1418")</f>
+        <v>T1418</v>
+      </c>
+      <c r="B115" t="s">
+        <v>124</v>
+      </c>
+      <c r="C115" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1418/001/","T1418.001")</f>
+        <v>T1418.001</v>
+      </c>
+      <c r="B116" t="s">
+        <v>126</v>
+      </c>
+      <c r="C116" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A117" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1424/","T1424")</f>
+        <v>T1424</v>
+      </c>
+      <c r="B117" t="s">
+        <v>129</v>
+      </c>
+      <c r="C117" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A118" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1422/","T1422")</f>
+        <v>T1422</v>
+      </c>
+      <c r="B118" t="s">
+        <v>135</v>
+      </c>
+      <c r="C118" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1421/","T1421")</f>
+        <v>T1421</v>
+      </c>
+      <c r="B119" t="s">
+        <v>137</v>
+      </c>
+      <c r="C119" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A120" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1423/","T1423")</f>
+        <v>T1423</v>
+      </c>
+      <c r="B120" t="s">
+        <v>139</v>
+      </c>
+      <c r="C120" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A121" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1631/","T1631")</f>
+        <v>T1631</v>
+      </c>
+      <c r="B121" t="s">
+        <v>161</v>
+      </c>
+      <c r="C121" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1631/001/","T1631.001")</f>
+        <v>T1631.001</v>
+      </c>
+      <c r="B122" t="s">
+        <v>163</v>
+      </c>
+      <c r="C122" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1577/","T1577")</f>
+        <v>T1577</v>
+      </c>
+      <c r="B123" t="s">
+        <v>168</v>
+      </c>
+      <c r="C123" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A124" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1577/","T1577")</f>
+        <v>T1577</v>
+      </c>
+      <c r="B124" t="s">
+        <v>168</v>
+      </c>
+      <c r="C124" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A125" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1577/","T1577")</f>
+        <v>T1577</v>
+      </c>
+      <c r="B125" t="s">
+        <v>168</v>
+      </c>
+      <c r="C125" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1577/","T1577")</f>
+        <v>T1577</v>
+      </c>
+      <c r="B126" t="s">
+        <v>168</v>
+      </c>
+      <c r="C126" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1645/","T1645")</f>
+        <v>T1645</v>
+      </c>
+      <c r="B127" t="s">
+        <v>170</v>
+      </c>
+      <c r="C127" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1645/","T1645")</f>
+        <v>T1645</v>
+      </c>
+      <c r="B128" t="s">
+        <v>170</v>
+      </c>
+      <c r="C128" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A129" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1637/","T1637")</f>
+        <v>T1637</v>
+      </c>
+      <c r="B129" t="s">
+        <v>172</v>
+      </c>
+      <c r="C129" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A130" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1637/","T1637")</f>
+        <v>T1637</v>
+      </c>
+      <c r="B130" t="s">
+        <v>172</v>
+      </c>
+      <c r="C130" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A131" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1637/001/","T1637.001")</f>
+        <v>T1637.001</v>
+      </c>
+      <c r="B131" t="s">
+        <v>174</v>
+      </c>
+      <c r="C131" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A132" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1637/001/","T1637.001")</f>
+        <v>T1637.001</v>
+      </c>
+      <c r="B132" t="s">
+        <v>174</v>
+      </c>
+      <c r="C132" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A133" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1481/","T1481")</f>
+        <v>T1481</v>
+      </c>
+      <c r="B133" t="s">
+        <v>176</v>
+      </c>
+      <c r="C133" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A134" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1481/001/","T1481.001")</f>
+        <v>T1481.001</v>
+      </c>
+      <c r="B134" t="s">
+        <v>178</v>
+      </c>
+      <c r="C134" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A135" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1481/002/","T1481.002")</f>
+        <v>T1481.002</v>
+      </c>
+      <c r="B135" t="s">
+        <v>180</v>
+      </c>
+      <c r="C135" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A136" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1481/003/","T1481.003")</f>
+        <v>T1481.003</v>
+      </c>
+      <c r="B136" t="s">
+        <v>182</v>
+      </c>
+      <c r="C136" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A137" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1474/","T1474")</f>
+        <v>T1474</v>
+      </c>
+      <c r="B137" t="s">
+        <v>189</v>
+      </c>
+      <c r="C137" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A138" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1474/001/","T1474.001")</f>
+        <v>T1474.001</v>
+      </c>
+      <c r="B138" t="s">
+        <v>191</v>
+      </c>
+      <c r="C138" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A139" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1474/001/","T1474.001")</f>
+        <v>T1474.001</v>
+      </c>
+      <c r="B139" t="s">
+        <v>191</v>
+      </c>
+      <c r="C139" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A140" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1474/002/","T1474.002")</f>
+        <v>T1474.002</v>
+      </c>
+      <c r="B140" t="s">
+        <v>193</v>
+      </c>
+      <c r="C140" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A141" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1474/002/","T1474.002")</f>
+        <v>T1474.002</v>
+      </c>
+      <c r="B141" t="s">
+        <v>193</v>
+      </c>
+      <c r="C141" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A142" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1474/002/","T1474.002")</f>
+        <v>T1474.002</v>
+      </c>
+      <c r="B142" t="s">
+        <v>193</v>
+      </c>
+      <c r="C142" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A143" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1474/003/","T1474.003")</f>
+        <v>T1474.003</v>
+      </c>
+      <c r="B143" t="s">
+        <v>195</v>
+      </c>
+      <c r="C143" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A144" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1474/003/","T1474.003")</f>
+        <v>T1474.003</v>
+      </c>
+      <c r="B144" t="s">
+        <v>195</v>
+      </c>
+      <c r="C144" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A145" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1641/001/","T1641.001")</f>
+        <v>T1641.001</v>
+      </c>
+      <c r="B145" t="s">
+        <v>201</v>
+      </c>
+      <c r="C145" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A146" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1641/001/","T1641.001")</f>
+        <v>T1641.001</v>
+      </c>
+      <c r="B146" t="s">
+        <v>201</v>
+      </c>
+      <c r="C146" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A147" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1641/001/","T1641.001")</f>
+        <v>T1641.001</v>
+      </c>
+      <c r="B147" t="s">
+        <v>201</v>
+      </c>
+      <c r="C147" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A148" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1437/001/","T1437.001")</f>
+        <v>T1437.001</v>
+      </c>
+      <c r="B148" t="s">
+        <v>294</v>
+      </c>
+      <c r="C148" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A149" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1643/","T1643")</f>
+        <v>T1643</v>
+      </c>
+      <c r="B149" t="s">
+        <v>258</v>
+      </c>
+      <c r="C149" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A150" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1643/","T1643")</f>
+        <v>T1643</v>
+      </c>
+      <c r="B150" t="s">
+        <v>258</v>
+      </c>
+      <c r="C150" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A151" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1604/","T1604")</f>
+        <v>T1604</v>
+      </c>
+      <c r="B151" t="s">
+        <v>296</v>
+      </c>
+      <c r="C151" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A152" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1604/","T1604")</f>
+        <v>T1604</v>
+      </c>
+      <c r="B152" t="s">
+        <v>296</v>
+      </c>
+      <c r="C152" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A153" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1582/","T1582")</f>
+        <v>T1582</v>
+      </c>
+      <c r="B153" t="s">
+        <v>260</v>
+      </c>
+      <c r="C153" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A154" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1582/","T1582")</f>
+        <v>T1582</v>
+      </c>
+      <c r="B154" t="s">
+        <v>260</v>
+      </c>
+      <c r="C154" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A155" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1582/","T1582")</f>
+        <v>T1582</v>
+      </c>
+      <c r="B155" t="s">
+        <v>260</v>
+      </c>
+      <c r="C155" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A156" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1582/","T1582")</f>
+        <v>T1582</v>
+      </c>
+      <c r="B156" t="s">
+        <v>260</v>
+      </c>
+      <c r="C156" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A157" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1582/","T1582")</f>
+        <v>T1582</v>
+      </c>
+      <c r="B157" t="s">
+        <v>260</v>
+      </c>
+      <c r="C157" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A158" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1429/","T1429")</f>
+        <v>T1429</v>
+      </c>
+      <c r="B158" t="s">
+        <v>215</v>
+      </c>
+      <c r="C158" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A159" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1512/","T1512")</f>
+        <v>T1512</v>
+      </c>
+      <c r="B159" t="s">
+        <v>242</v>
+      </c>
+      <c r="C159" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A160" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1513/","T1513")</f>
+        <v>T1513</v>
+      </c>
+      <c r="B160" t="s">
+        <v>298</v>
+      </c>
+      <c r="C160" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A161" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1517/","T1517")</f>
+        <v>T1517</v>
+      </c>
+      <c r="B161" t="s">
+        <v>205</v>
+      </c>
+      <c r="C161" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A162" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1517/","T1517")</f>
+        <v>T1517</v>
+      </c>
+      <c r="B162" t="s">
+        <v>205</v>
+      </c>
+      <c r="C162" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A163" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1517/","T1517")</f>
+        <v>T1517</v>
+      </c>
+      <c r="B163" t="s">
+        <v>205</v>
+      </c>
+      <c r="C163" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A164" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1634/","T1634")</f>
+        <v>T1634</v>
+      </c>
+      <c r="B164" t="s">
+        <v>300</v>
+      </c>
+      <c r="C164" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A165" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1634/001/","T1634.001")</f>
+        <v>T1634.001</v>
+      </c>
+      <c r="B165" t="s">
+        <v>301</v>
+      </c>
+      <c r="C165" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A166" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1533/","T1533")</f>
+        <v>T1533</v>
+      </c>
+      <c r="B166" t="s">
+        <v>223</v>
+      </c>
+      <c r="C166" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A167" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1420/","T1420")</f>
+        <v>T1420</v>
+      </c>
+      <c r="B167" t="s">
+        <v>303</v>
+      </c>
+      <c r="C167" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A168" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1409/","T1409")</f>
+        <v>T1409</v>
+      </c>
+      <c r="B168" t="s">
+        <v>240</v>
+      </c>
+      <c r="C168" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A169" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1633/","T1633")</f>
+        <v>T1633</v>
+      </c>
+      <c r="B169" t="s">
+        <v>311</v>
+      </c>
+      <c r="C169" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A170" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1633/001/","T1633.001")</f>
+        <v>T1633.001</v>
+      </c>
+      <c r="B170" t="s">
+        <v>313</v>
+      </c>
+      <c r="C170" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A171" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1629/","T1629")</f>
+        <v>T1629</v>
+      </c>
+      <c r="B171" t="s">
+        <v>263</v>
+      </c>
+      <c r="C171" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A172" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1629/","T1629")</f>
+        <v>T1629</v>
+      </c>
+      <c r="B172" t="s">
+        <v>263</v>
+      </c>
+      <c r="C172" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A173" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1629/003/","T1629.003")</f>
+        <v>T1629.003</v>
+      </c>
+      <c r="B173" t="s">
+        <v>265</v>
+      </c>
+      <c r="C173" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A174" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1629/003/","T1629.003")</f>
+        <v>T1629.003</v>
+      </c>
+      <c r="B174" t="s">
+        <v>265</v>
+      </c>
+      <c r="C174" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A175" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1632/","T1632")</f>
+        <v>T1632</v>
+      </c>
+      <c r="B175" t="s">
+        <v>267</v>
+      </c>
+      <c r="C175" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A176" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1632/","T1632")</f>
+        <v>T1632</v>
+      </c>
+      <c r="B176" t="s">
+        <v>267</v>
+      </c>
+      <c r="C176" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A177" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1632/001/","T1632.001")</f>
+        <v>T1632.001</v>
+      </c>
+      <c r="B177" t="s">
+        <v>269</v>
+      </c>
+      <c r="C177" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A178" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1632/001/","T1632.001")</f>
+        <v>T1632.001</v>
+      </c>
+      <c r="B178" t="s">
+        <v>269</v>
+      </c>
+      <c r="C178" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A179" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1617/","T1617")</f>
+        <v>T1617</v>
+      </c>
+      <c r="B179" t="s">
+        <v>316</v>
+      </c>
+      <c r="C179" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A180" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1617/","T1617")</f>
+        <v>T1617</v>
+      </c>
+      <c r="B180" t="s">
+        <v>316</v>
+      </c>
+      <c r="C180" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A181" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1630/001/","T1630.001")</f>
+        <v>T1630.001</v>
+      </c>
+      <c r="B181" t="s">
+        <v>271</v>
+      </c>
+      <c r="C181" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A182" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1630/001/","T1630.001")</f>
+        <v>T1630.001</v>
+      </c>
+      <c r="B182" t="s">
+        <v>271</v>
+      </c>
+      <c r="C182" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A183" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1630/001/","T1630.001")</f>
+        <v>T1630.001</v>
+      </c>
+      <c r="B183" t="s">
+        <v>271</v>
+      </c>
+      <c r="C183" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A184" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1630/002/","T1630.002")</f>
+        <v>T1630.002</v>
+      </c>
+      <c r="B184" t="s">
+        <v>273</v>
+      </c>
+      <c r="C184" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A185" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1630/002/","T1630.002")</f>
+        <v>T1630.002</v>
+      </c>
+      <c r="B185" t="s">
+        <v>273</v>
+      </c>
+      <c r="C185" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A186" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1630/002/","T1630.002")</f>
+        <v>T1630.002</v>
+      </c>
+      <c r="B186" t="s">
+        <v>273</v>
+      </c>
+      <c r="C186" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A187" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1630/002/","T1630.002")</f>
+        <v>T1630.002</v>
+      </c>
+      <c r="B187" t="s">
+        <v>273</v>
+      </c>
+      <c r="C187" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A188" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1630/002/","T1630.002")</f>
+        <v>T1630.002</v>
+      </c>
+      <c r="B188" t="s">
+        <v>273</v>
+      </c>
+      <c r="C188" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A189" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1630/003/","T1630.003")</f>
+        <v>T1630.003</v>
+      </c>
+      <c r="B189" t="s">
+        <v>275</v>
+      </c>
+      <c r="C189" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A190" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1630/003/","T1630.003")</f>
+        <v>T1630.003</v>
+      </c>
+      <c r="B190" t="s">
+        <v>275</v>
+      </c>
+      <c r="C190" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A191" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1630/003/","T1630.003")</f>
+        <v>T1630.003</v>
+      </c>
+      <c r="B191" t="s">
+        <v>275</v>
+      </c>
+      <c r="C191" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A192" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1544/","T1544")</f>
+        <v>T1544</v>
+      </c>
+      <c r="B192" t="s">
+        <v>318</v>
+      </c>
+      <c r="C192" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A193" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1544/","T1544")</f>
+        <v>T1544</v>
+      </c>
+      <c r="B193" t="s">
+        <v>318</v>
+      </c>
+      <c r="C193" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A194" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1639/","T1639")</f>
+        <v>T1639</v>
+      </c>
+      <c r="B194" t="s">
+        <v>320</v>
+      </c>
+      <c r="C194" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A195" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1639/001/","T1639.001")</f>
+        <v>T1639.001</v>
+      </c>
+      <c r="B195" t="s">
+        <v>321</v>
+      </c>
+      <c r="C195" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A196" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1646/","T1646")</f>
+        <v>T1646</v>
+      </c>
+      <c r="B196" t="s">
+        <v>322</v>
+      </c>
+      <c r="C196" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A197" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1414/","T1414")</f>
+        <v>T1414</v>
+      </c>
+      <c r="B197" t="s">
+        <v>217</v>
+      </c>
+      <c r="C197" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A198" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1641/","T1641")</f>
+        <v>T1641</v>
+      </c>
+      <c r="B198" t="s">
+        <v>325</v>
+      </c>
+      <c r="C198" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A199" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1471/","T1471")</f>
+        <v>T1471</v>
+      </c>
+      <c r="B199" t="s">
+        <v>284</v>
+      </c>
+      <c r="C199" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A200" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1471/","T1471")</f>
+        <v>T1471</v>
+      </c>
+      <c r="B200" t="s">
+        <v>284</v>
+      </c>
+      <c r="C200" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A201" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1471/","T1471")</f>
+        <v>T1471</v>
+      </c>
+      <c r="B201" t="s">
+        <v>284</v>
+      </c>
+      <c r="C201" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A202" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1471/","T1471")</f>
+        <v>T1471</v>
+      </c>
+      <c r="B202" t="s">
+        <v>284</v>
+      </c>
+      <c r="C202" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A203" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1417/","T1417")</f>
+        <v>T1417</v>
+      </c>
+      <c r="B203" t="s">
+        <v>225</v>
+      </c>
+      <c r="C203" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A204" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1458/","T1458")</f>
+        <v>T1458</v>
+      </c>
+      <c r="B204" t="s">
+        <v>339</v>
+      </c>
+      <c r="C204" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A205" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1458/","T1458")</f>
+        <v>T1458</v>
+      </c>
+      <c r="B205" t="s">
+        <v>339</v>
+      </c>
+      <c r="C205" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A206" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1458/","T1458")</f>
+        <v>T1458</v>
+      </c>
+      <c r="B206" t="s">
+        <v>339</v>
+      </c>
+      <c r="C206" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A207" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1458/","T1458")</f>
+        <v>T1458</v>
+      </c>
+      <c r="B207" t="s">
+        <v>339</v>
+      </c>
+      <c r="C207" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A208" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1407/","T1407")</f>
+        <v>T1407</v>
+      </c>
+      <c r="B208" t="s">
+        <v>277</v>
+      </c>
+      <c r="C208" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A209" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1407/","T1407")</f>
+        <v>T1407</v>
+      </c>
+      <c r="B209" t="s">
+        <v>277</v>
+      </c>
+      <c r="C209" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A210" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1456/","T1456")</f>
+        <v>T1456</v>
+      </c>
+      <c r="B210" t="s">
+        <v>357</v>
+      </c>
+      <c r="C210" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A211" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1456/","T1456")</f>
+        <v>T1456</v>
+      </c>
+      <c r="B211" t="s">
+        <v>357</v>
+      </c>
+      <c r="C211" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A212" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1456/","T1456")</f>
+        <v>T1456</v>
+      </c>
+      <c r="B212" t="s">
+        <v>357</v>
+      </c>
+      <c r="C212" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A213" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1461/","T1461")</f>
+        <v>T1461</v>
+      </c>
+      <c r="B213" t="s">
+        <v>374</v>
+      </c>
+      <c r="C213" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A214" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1461/","T1461")</f>
+        <v>T1461</v>
+      </c>
+      <c r="B214" t="s">
+        <v>374</v>
+      </c>
+      <c r="C214" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A215" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1616/","T1616")</f>
+        <v>T1616</v>
+      </c>
+      <c r="B215" t="s">
+        <v>250</v>
+      </c>
+      <c r="C215" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A216" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1616/","T1616")</f>
+        <v>T1616</v>
+      </c>
+      <c r="B216" t="s">
+        <v>250</v>
+      </c>
+      <c r="C216" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A217" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1616/","T1616")</f>
+        <v>T1616</v>
+      </c>
+      <c r="B217" t="s">
+        <v>250</v>
+      </c>
+      <c r="C217" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A218" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1575/","T1575")</f>
+        <v>T1575</v>
+      </c>
+      <c r="B218" t="s">
+        <v>401</v>
+      </c>
+      <c r="C218" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A219" t="str">
+        <f>HYPERLINK("https://attack.mitre.org/techniques/T1635/","T1635")</f>
+        <v>T1635</v>
+      </c>
+      <c r="B219" t="s">
+        <v>207</v>
+      </c>
+      <c r="C219" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="312" ht="15.5" x14ac:dyDescent="0.35"/>
@@ -2725,7 +5540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7AF39-A8AE-1448-8EA3-B969364DCC63}">
   <dimension ref="A1:XFD155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
@@ -39630,15 +42445,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Date_x0020__x0026__x0020_Time xmlns="0ca01121-da18-407e-86a0-e0ab1b6c7d8c" xsi:nil="true"/>
@@ -39655,6 +42461,15 @@
     <CostPer xmlns="0ca01121-da18-407e-86a0-e0ab1b6c7d8c" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -39957,20 +42772,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CF67D68-5D9D-4184-8FCF-9F43A8746F62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B241570-251F-4639-B053-9597F90135CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="0ca01121-da18-407e-86a0-e0ab1b6c7d8c"/>
     <ds:schemaRef ds:uri="ec3e3de1-934b-464b-893a-587ae869df79"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CF67D68-5D9D-4184-8FCF-9F43A8746F62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/src/mappings/mobile/xlsx/veris-1_3_7-mappings-mobile_v12.xlsx
+++ b/src/mappings/mobile/xlsx/veris-1_3_7-mappings-mobile_v12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitre-my.sharepoint.com/personal/javoss_mitre_org/Documents/Documents/Veris II/veris-2/src/mappings/mobile/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="6_{ACAA37AD-42AF-4D02-A299-4CDD764FD86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E07D8B9-9E78-4B30-A1C2-9CC372875EE8}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="6_{ACAA37AD-42AF-4D02-A299-4CDD764FD86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{018A16CF-1854-49DC-B61E-1FAF62240A86}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="11" xr2:uid="{698518E7-B140-7645-B530-A1A72BD96EA6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="3" xr2:uid="{698518E7-B140-7645-B530-A1A72BD96EA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="498">
   <si>
     <t>ATT&amp;CK Integration into VERIS</t>
   </si>
@@ -2889,7 +2889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B670464-1153-4AA6-978E-5B7FAB2C4B98}">
   <dimension ref="A1:C314"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C219"/>
     </sheetView>
   </sheetViews>
@@ -39664,8 +39664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDB77F8-08D1-470F-BA2C-78FD3244C97D}">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -39975,139 +39975,121 @@
       <c r="B48" s="9"/>
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49" s="9"/>
       <c r="C49" s="4"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50" s="9"/>
       <c r="C50" s="4"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51" s="9"/>
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52" s="9"/>
       <c r="C52" s="4"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53" s="9"/>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54" s="9"/>
       <c r="C54" s="4"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55" s="9"/>
       <c r="C55" s="13"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56" s="9"/>
       <c r="C56" s="13"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57" s="9"/>
       <c r="C57" s="13"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58" s="9"/>
       <c r="C58" s="13"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59" s="9"/>
       <c r="C59" s="13"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>243</v>
-      </c>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" s="9"/>
       <c r="C60" s="4"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61" s="9"/>
       <c r="C61" s="4"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62" s="9"/>
       <c r="C62" s="4"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63" s="9"/>
       <c r="C63" s="4"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>244</v>
-      </c>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64" s="9"/>
       <c r="C64" s="13"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65" s="9"/>
       <c r="C65" s="13"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66" s="9"/>
       <c r="C66" s="13"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67" s="9"/>
       <c r="C67" s="13"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68" s="9"/>
       <c r="C68" s="13"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69" s="9"/>
       <c r="C69" s="4"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70" s="9"/>
       <c r="C70" s="4"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B71" s="9"/>
       <c r="C71" s="4"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B72" s="9"/>
       <c r="C72" s="4"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B73" s="9"/>
       <c r="C73" s="4"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B74" s="9"/>
       <c r="C74" s="4"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>245</v>
-      </c>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B75" s="9"/>
       <c r="C75" s="13"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>246</v>
-      </c>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>159</v>
-      </c>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>164</v>
-      </c>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B78" s="9"/>
       <c r="C78" s="13"/>
     </row>
@@ -42445,34 +42427,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Date_x0020__x0026__x0020_Time xmlns="0ca01121-da18-407e-86a0-e0ab1b6c7d8c" xsi:nil="true"/>
-    <ProjectNum xmlns="0ca01121-da18-407e-86a0-e0ab1b6c7d8c" xsi:nil="true"/>
-    <TotalCost xmlns="0ca01121-da18-407e-86a0-e0ab1b6c7d8c" xsi:nil="true"/>
-    <Participants xmlns="0ca01121-da18-407e-86a0-e0ab1b6c7d8c" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="0ca01121-da18-407e-86a0-e0ab1b6c7d8c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0ca01121-da18-407e-86a0-e0ab1b6c7d8c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ec3e3de1-934b-464b-893a-587ae869df79" xsi:nil="true"/>
-    <MasterListID xmlns="0ca01121-da18-407e-86a0-e0ab1b6c7d8c" xsi:nil="true"/>
-    <ProjectName xmlns="0ca01121-da18-407e-86a0-e0ab1b6c7d8c" xsi:nil="true"/>
-    <CostPer xmlns="0ca01121-da18-407e-86a0-e0ab1b6c7d8c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010052D8A6B6F9FE2E45B0EDBAAD5FAF1312" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7022bf91ca57a9626808ed15fdcbfbd6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0ca01121-da18-407e-86a0-e0ab1b6c7d8c" xmlns:ns3="ec3e3de1-934b-464b-893a-587ae869df79" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d11a2dadb3f3bef5d5d1fdbc6ca57c91" ns2:_="" ns3:_="">
     <xsd:import namespace="0ca01121-da18-407e-86a0-e0ab1b6c7d8c"/>
@@ -42771,26 +42725,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B241570-251F-4639-B053-9597F90135CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0ca01121-da18-407e-86a0-e0ab1b6c7d8c"/>
-    <ds:schemaRef ds:uri="ec3e3de1-934b-464b-893a-587ae869df79"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CF67D68-5D9D-4184-8FCF-9F43A8746F62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Date_x0020__x0026__x0020_Time xmlns="0ca01121-da18-407e-86a0-e0ab1b6c7d8c" xsi:nil="true"/>
+    <ProjectNum xmlns="0ca01121-da18-407e-86a0-e0ab1b6c7d8c" xsi:nil="true"/>
+    <TotalCost xmlns="0ca01121-da18-407e-86a0-e0ab1b6c7d8c" xsi:nil="true"/>
+    <Participants xmlns="0ca01121-da18-407e-86a0-e0ab1b6c7d8c" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="0ca01121-da18-407e-86a0-e0ab1b6c7d8c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0ca01121-da18-407e-86a0-e0ab1b6c7d8c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ec3e3de1-934b-464b-893a-587ae869df79" xsi:nil="true"/>
+    <MasterListID xmlns="0ca01121-da18-407e-86a0-e0ab1b6c7d8c" xsi:nil="true"/>
+    <ProjectName xmlns="0ca01121-da18-407e-86a0-e0ab1b6c7d8c" xsi:nil="true"/>
+    <CostPer xmlns="0ca01121-da18-407e-86a0-e0ab1b6c7d8c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9FB4FB3-2B6E-4660-906D-2A13ACB54E95}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42807,4 +42770,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CF67D68-5D9D-4184-8FCF-9F43A8746F62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B241570-251F-4639-B053-9597F90135CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0ca01121-da18-407e-86a0-e0ab1b6c7d8c"/>
+    <ds:schemaRef ds:uri="ec3e3de1-934b-464b-893a-587ae869df79"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>